--- a/Project 1/adm2021Dict.xlsx
+++ b/Project 1/adm2021Dict.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Shares\IPEDS\DCT\2021\Winter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Math 327\Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA2A98A-50DD-46A4-A7CF-F6D63C1BFB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="90" windowWidth="16280" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="5" r:id="rId1"/>
@@ -20,6 +21,8 @@
     <sheet name="Imputation values" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Frequencies!$A$1:$F$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Statistics!$A$1:$H$1</definedName>
     <definedName name="Description">Description!$A$1:$C$40</definedName>
     <definedName name="Frequencies">Frequencies!$A$1:$F$37</definedName>
     <definedName name="FrequenciesRV">#REF!</definedName>
@@ -949,7 +952,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -1047,10 +1050,10 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1078,13 +1081,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1175,6 +1178,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1210,6 +1230,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1385,20 +1422,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>203</v>
       </c>
@@ -1412,7 +1449,7 @@
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1424,7 +1461,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>149</v>
       </c>
@@ -1440,7 +1477,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>150</v>
       </c>
@@ -1456,7 +1493,7 @@
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
     </row>
-    <row r="7" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>151</v>
       </c>
@@ -1472,7 +1509,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>152</v>
       </c>
@@ -1486,7 +1523,7 @@
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
     </row>
-    <row r="11" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>153</v>
       </c>
@@ -1502,7 +1539,7 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>155</v>
       </c>
@@ -1518,7 +1555,7 @@
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
     </row>
-    <row r="13" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>157</v>
       </c>
@@ -1534,7 +1571,7 @@
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
     </row>
-    <row r="14" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>158</v>
       </c>
@@ -1550,7 +1587,7 @@
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>159</v>
       </c>
@@ -1584,26 +1621,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="81.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1626,7 +1663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1649,7 +1686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>10521</v>
       </c>
@@ -1672,7 +1709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>10526</v>
       </c>
@@ -1695,7 +1732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>10531</v>
       </c>
@@ -1718,7 +1755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>10536</v>
       </c>
@@ -1741,7 +1778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>10541</v>
       </c>
@@ -1764,7 +1801,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>10546</v>
       </c>
@@ -1787,7 +1824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>10551</v>
       </c>
@@ -1810,7 +1847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>10556</v>
       </c>
@@ -1833,7 +1870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10559</v>
       </c>
@@ -1856,7 +1893,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11016</v>
       </c>
@@ -1879,7 +1916,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>10566</v>
       </c>
@@ -1902,7 +1939,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>10571</v>
       </c>
@@ -1925,7 +1962,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>11021</v>
       </c>
@@ -1948,7 +1985,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>10576</v>
       </c>
@@ -1971,7 +2008,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10581</v>
       </c>
@@ -1994,7 +2031,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>11011</v>
       </c>
@@ -2017,7 +2054,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>11001</v>
       </c>
@@ -2040,7 +2077,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>11006</v>
       </c>
@@ -2063,7 +2100,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>11026</v>
       </c>
@@ -2086,7 +2123,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>10586</v>
       </c>
@@ -2109,7 +2146,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>10591</v>
       </c>
@@ -2132,7 +2169,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>11031</v>
       </c>
@@ -2155,7 +2192,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>10596</v>
       </c>
@@ -2178,7 +2215,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>10601</v>
       </c>
@@ -2201,7 +2238,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>10611</v>
       </c>
@@ -2224,7 +2261,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>10616</v>
       </c>
@@ -2247,7 +2284,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>10621</v>
       </c>
@@ -2270,7 +2307,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>10626</v>
       </c>
@@ -2293,7 +2330,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>10631</v>
       </c>
@@ -2316,7 +2353,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>10636</v>
       </c>
@@ -2339,7 +2376,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>10641</v>
       </c>
@@ -2362,7 +2399,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>10646</v>
       </c>
@@ -2385,7 +2422,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>10651</v>
       </c>
@@ -2408,7 +2445,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>10656</v>
       </c>
@@ -2431,7 +2468,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>10661</v>
       </c>
@@ -2454,7 +2491,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>10666</v>
       </c>
@@ -2477,7 +2514,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>10671</v>
       </c>
@@ -2500,7 +2537,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>10676</v>
       </c>
@@ -2523,7 +2560,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2532,7 +2569,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2540,7 +2577,7 @@
       <c r="E42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2549,7 +2586,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2558,7 +2595,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2567,7 +2604,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2575,7 +2612,7 @@
       <c r="E46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2584,7 +2621,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2592,7 +2629,7 @@
       <c r="E48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2601,7 +2638,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2610,7 +2647,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2619,7 +2656,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2627,7 +2664,7 @@
       <c r="E52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2636,7 +2673,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2644,7 +2681,7 @@
       <c r="E54" s="7"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2653,7 +2690,7 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2662,7 +2699,7 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2671,7 +2708,7 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2679,7 +2716,7 @@
       <c r="E58" s="7"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2688,7 +2725,7 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2696,7 +2733,7 @@
       <c r="E60" s="7"/>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2705,7 +2742,7 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2714,7 +2751,7 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -2723,7 +2760,7 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -2732,7 +2769,7 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -2741,7 +2778,7 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2750,7 +2787,7 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -2759,7 +2796,7 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -2768,7 +2805,7 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -2777,7 +2814,7 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -2786,7 +2823,7 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -2795,7 +2832,7 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -2804,7 +2841,7 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -2813,7 +2850,7 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -2822,7 +2859,7 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -2831,7 +2868,7 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -2840,7 +2877,7 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -2849,7 +2886,7 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -2858,7 +2895,7 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -2867,7 +2904,7 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -2876,7 +2913,7 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -2885,7 +2922,7 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -2894,7 +2931,7 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -2903,7 +2940,7 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -2912,7 +2949,7 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -2921,7 +2958,7 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -2930,7 +2967,7 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -2939,7 +2976,7 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -2948,7 +2985,7 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -2957,7 +2994,7 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -2966,7 +3003,7 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -2975,7 +3012,7 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -2984,7 +3021,7 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -2993,7 +3030,7 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3002,7 +3039,7 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -3011,7 +3048,7 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -3020,7 +3057,7 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -3029,7 +3066,7 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -3038,7 +3075,7 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -3047,7 +3084,7 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -3056,7 +3093,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -3065,7 +3102,7 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -3074,7 +3111,7 @@
       <c r="F102" s="19"/>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -3082,7 +3119,7 @@
       <c r="E103" s="7"/>
       <c r="G103" s="7"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -3090,7 +3127,7 @@
       <c r="E104" s="7"/>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -3099,7 +3136,7 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -3108,7 +3145,7 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -3117,7 +3154,7 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -3126,7 +3163,7 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -3135,7 +3172,7 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -3144,7 +3181,7 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -3153,7 +3190,7 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -3162,7 +3199,7 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -3170,7 +3207,7 @@
       <c r="E113" s="7"/>
       <c r="G113" s="7"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -3179,7 +3216,7 @@
       <c r="F114" s="19"/>
       <c r="G114" s="7"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -3187,7 +3224,7 @@
       <c r="E115" s="7"/>
       <c r="G115" s="7"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -3195,7 +3232,7 @@
       <c r="E116" s="7"/>
       <c r="G116" s="7"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -3203,7 +3240,7 @@
       <c r="E117" s="7"/>
       <c r="G117" s="7"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -3211,7 +3248,7 @@
       <c r="E118" s="7"/>
       <c r="G118" s="7"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -3220,7 +3257,7 @@
       <c r="F119" s="19"/>
       <c r="G119" s="7"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -3228,7 +3265,7 @@
       <c r="E120" s="7"/>
       <c r="G120" s="7"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -3236,7 +3273,7 @@
       <c r="E121" s="7"/>
       <c r="G121" s="7"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -3244,7 +3281,7 @@
       <c r="E122" s="7"/>
       <c r="G122" s="7"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -3252,7 +3289,7 @@
       <c r="E123" s="7"/>
       <c r="G123" s="7"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -3260,7 +3297,7 @@
       <c r="E124" s="7"/>
       <c r="G124" s="7"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -3268,7 +3305,7 @@
       <c r="E125" s="7"/>
       <c r="G125" s="7"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -3276,7 +3313,7 @@
       <c r="E126" s="7"/>
       <c r="G126" s="7"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -3285,7 +3322,7 @@
       <c r="F127" s="19"/>
       <c r="G127" s="7"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -3294,7 +3331,7 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -3303,7 +3340,7 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -3312,7 +3349,7 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -3321,7 +3358,7 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -3330,7 +3367,7 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -3338,7 +3375,7 @@
       <c r="E133" s="7"/>
       <c r="G133" s="7"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -3347,7 +3384,7 @@
       <c r="F134" s="19"/>
       <c r="G134" s="7"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -3356,7 +3393,7 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -3365,7 +3402,7 @@
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -3374,7 +3411,7 @@
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -3390,209 +3427,209 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="22"/>
-    <col min="2" max="2" width="11.1796875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="144.81640625" style="22" customWidth="1"/>
-    <col min="4" max="257" width="8.7265625" style="23"/>
-    <col min="258" max="258" width="11.1796875" style="23" customWidth="1"/>
-    <col min="259" max="259" width="144.81640625" style="23" customWidth="1"/>
-    <col min="260" max="513" width="8.7265625" style="23"/>
-    <col min="514" max="514" width="11.1796875" style="23" customWidth="1"/>
-    <col min="515" max="515" width="144.81640625" style="23" customWidth="1"/>
-    <col min="516" max="769" width="8.7265625" style="23"/>
-    <col min="770" max="770" width="11.1796875" style="23" customWidth="1"/>
-    <col min="771" max="771" width="144.81640625" style="23" customWidth="1"/>
-    <col min="772" max="1025" width="8.7265625" style="23"/>
-    <col min="1026" max="1026" width="11.1796875" style="23" customWidth="1"/>
-    <col min="1027" max="1027" width="144.81640625" style="23" customWidth="1"/>
-    <col min="1028" max="1281" width="8.7265625" style="23"/>
-    <col min="1282" max="1282" width="11.1796875" style="23" customWidth="1"/>
-    <col min="1283" max="1283" width="144.81640625" style="23" customWidth="1"/>
-    <col min="1284" max="1537" width="8.7265625" style="23"/>
-    <col min="1538" max="1538" width="11.1796875" style="23" customWidth="1"/>
-    <col min="1539" max="1539" width="144.81640625" style="23" customWidth="1"/>
-    <col min="1540" max="1793" width="8.7265625" style="23"/>
-    <col min="1794" max="1794" width="11.1796875" style="23" customWidth="1"/>
-    <col min="1795" max="1795" width="144.81640625" style="23" customWidth="1"/>
-    <col min="1796" max="2049" width="8.7265625" style="23"/>
-    <col min="2050" max="2050" width="11.1796875" style="23" customWidth="1"/>
-    <col min="2051" max="2051" width="144.81640625" style="23" customWidth="1"/>
-    <col min="2052" max="2305" width="8.7265625" style="23"/>
-    <col min="2306" max="2306" width="11.1796875" style="23" customWidth="1"/>
-    <col min="2307" max="2307" width="144.81640625" style="23" customWidth="1"/>
-    <col min="2308" max="2561" width="8.7265625" style="23"/>
-    <col min="2562" max="2562" width="11.1796875" style="23" customWidth="1"/>
-    <col min="2563" max="2563" width="144.81640625" style="23" customWidth="1"/>
-    <col min="2564" max="2817" width="8.7265625" style="23"/>
-    <col min="2818" max="2818" width="11.1796875" style="23" customWidth="1"/>
-    <col min="2819" max="2819" width="144.81640625" style="23" customWidth="1"/>
-    <col min="2820" max="3073" width="8.7265625" style="23"/>
-    <col min="3074" max="3074" width="11.1796875" style="23" customWidth="1"/>
-    <col min="3075" max="3075" width="144.81640625" style="23" customWidth="1"/>
-    <col min="3076" max="3329" width="8.7265625" style="23"/>
-    <col min="3330" max="3330" width="11.1796875" style="23" customWidth="1"/>
-    <col min="3331" max="3331" width="144.81640625" style="23" customWidth="1"/>
-    <col min="3332" max="3585" width="8.7265625" style="23"/>
-    <col min="3586" max="3586" width="11.1796875" style="23" customWidth="1"/>
-    <col min="3587" max="3587" width="144.81640625" style="23" customWidth="1"/>
-    <col min="3588" max="3841" width="8.7265625" style="23"/>
-    <col min="3842" max="3842" width="11.1796875" style="23" customWidth="1"/>
-    <col min="3843" max="3843" width="144.81640625" style="23" customWidth="1"/>
-    <col min="3844" max="4097" width="8.7265625" style="23"/>
-    <col min="4098" max="4098" width="11.1796875" style="23" customWidth="1"/>
-    <col min="4099" max="4099" width="144.81640625" style="23" customWidth="1"/>
-    <col min="4100" max="4353" width="8.7265625" style="23"/>
-    <col min="4354" max="4354" width="11.1796875" style="23" customWidth="1"/>
-    <col min="4355" max="4355" width="144.81640625" style="23" customWidth="1"/>
-    <col min="4356" max="4609" width="8.7265625" style="23"/>
-    <col min="4610" max="4610" width="11.1796875" style="23" customWidth="1"/>
-    <col min="4611" max="4611" width="144.81640625" style="23" customWidth="1"/>
-    <col min="4612" max="4865" width="8.7265625" style="23"/>
-    <col min="4866" max="4866" width="11.1796875" style="23" customWidth="1"/>
-    <col min="4867" max="4867" width="144.81640625" style="23" customWidth="1"/>
-    <col min="4868" max="5121" width="8.7265625" style="23"/>
-    <col min="5122" max="5122" width="11.1796875" style="23" customWidth="1"/>
-    <col min="5123" max="5123" width="144.81640625" style="23" customWidth="1"/>
-    <col min="5124" max="5377" width="8.7265625" style="23"/>
-    <col min="5378" max="5378" width="11.1796875" style="23" customWidth="1"/>
-    <col min="5379" max="5379" width="144.81640625" style="23" customWidth="1"/>
-    <col min="5380" max="5633" width="8.7265625" style="23"/>
-    <col min="5634" max="5634" width="11.1796875" style="23" customWidth="1"/>
-    <col min="5635" max="5635" width="144.81640625" style="23" customWidth="1"/>
-    <col min="5636" max="5889" width="8.7265625" style="23"/>
-    <col min="5890" max="5890" width="11.1796875" style="23" customWidth="1"/>
-    <col min="5891" max="5891" width="144.81640625" style="23" customWidth="1"/>
-    <col min="5892" max="6145" width="8.7265625" style="23"/>
-    <col min="6146" max="6146" width="11.1796875" style="23" customWidth="1"/>
-    <col min="6147" max="6147" width="144.81640625" style="23" customWidth="1"/>
-    <col min="6148" max="6401" width="8.7265625" style="23"/>
-    <col min="6402" max="6402" width="11.1796875" style="23" customWidth="1"/>
-    <col min="6403" max="6403" width="144.81640625" style="23" customWidth="1"/>
-    <col min="6404" max="6657" width="8.7265625" style="23"/>
-    <col min="6658" max="6658" width="11.1796875" style="23" customWidth="1"/>
-    <col min="6659" max="6659" width="144.81640625" style="23" customWidth="1"/>
-    <col min="6660" max="6913" width="8.7265625" style="23"/>
-    <col min="6914" max="6914" width="11.1796875" style="23" customWidth="1"/>
-    <col min="6915" max="6915" width="144.81640625" style="23" customWidth="1"/>
-    <col min="6916" max="7169" width="8.7265625" style="23"/>
-    <col min="7170" max="7170" width="11.1796875" style="23" customWidth="1"/>
-    <col min="7171" max="7171" width="144.81640625" style="23" customWidth="1"/>
-    <col min="7172" max="7425" width="8.7265625" style="23"/>
-    <col min="7426" max="7426" width="11.1796875" style="23" customWidth="1"/>
-    <col min="7427" max="7427" width="144.81640625" style="23" customWidth="1"/>
-    <col min="7428" max="7681" width="8.7265625" style="23"/>
-    <col min="7682" max="7682" width="11.1796875" style="23" customWidth="1"/>
-    <col min="7683" max="7683" width="144.81640625" style="23" customWidth="1"/>
-    <col min="7684" max="7937" width="8.7265625" style="23"/>
-    <col min="7938" max="7938" width="11.1796875" style="23" customWidth="1"/>
-    <col min="7939" max="7939" width="144.81640625" style="23" customWidth="1"/>
-    <col min="7940" max="8193" width="8.7265625" style="23"/>
-    <col min="8194" max="8194" width="11.1796875" style="23" customWidth="1"/>
-    <col min="8195" max="8195" width="144.81640625" style="23" customWidth="1"/>
-    <col min="8196" max="8449" width="8.7265625" style="23"/>
-    <col min="8450" max="8450" width="11.1796875" style="23" customWidth="1"/>
-    <col min="8451" max="8451" width="144.81640625" style="23" customWidth="1"/>
-    <col min="8452" max="8705" width="8.7265625" style="23"/>
-    <col min="8706" max="8706" width="11.1796875" style="23" customWidth="1"/>
-    <col min="8707" max="8707" width="144.81640625" style="23" customWidth="1"/>
-    <col min="8708" max="8961" width="8.7265625" style="23"/>
-    <col min="8962" max="8962" width="11.1796875" style="23" customWidth="1"/>
-    <col min="8963" max="8963" width="144.81640625" style="23" customWidth="1"/>
-    <col min="8964" max="9217" width="8.7265625" style="23"/>
-    <col min="9218" max="9218" width="11.1796875" style="23" customWidth="1"/>
-    <col min="9219" max="9219" width="144.81640625" style="23" customWidth="1"/>
-    <col min="9220" max="9473" width="8.7265625" style="23"/>
-    <col min="9474" max="9474" width="11.1796875" style="23" customWidth="1"/>
-    <col min="9475" max="9475" width="144.81640625" style="23" customWidth="1"/>
-    <col min="9476" max="9729" width="8.7265625" style="23"/>
-    <col min="9730" max="9730" width="11.1796875" style="23" customWidth="1"/>
-    <col min="9731" max="9731" width="144.81640625" style="23" customWidth="1"/>
-    <col min="9732" max="9985" width="8.7265625" style="23"/>
-    <col min="9986" max="9986" width="11.1796875" style="23" customWidth="1"/>
-    <col min="9987" max="9987" width="144.81640625" style="23" customWidth="1"/>
-    <col min="9988" max="10241" width="8.7265625" style="23"/>
-    <col min="10242" max="10242" width="11.1796875" style="23" customWidth="1"/>
-    <col min="10243" max="10243" width="144.81640625" style="23" customWidth="1"/>
-    <col min="10244" max="10497" width="8.7265625" style="23"/>
-    <col min="10498" max="10498" width="11.1796875" style="23" customWidth="1"/>
-    <col min="10499" max="10499" width="144.81640625" style="23" customWidth="1"/>
-    <col min="10500" max="10753" width="8.7265625" style="23"/>
-    <col min="10754" max="10754" width="11.1796875" style="23" customWidth="1"/>
-    <col min="10755" max="10755" width="144.81640625" style="23" customWidth="1"/>
-    <col min="10756" max="11009" width="8.7265625" style="23"/>
-    <col min="11010" max="11010" width="11.1796875" style="23" customWidth="1"/>
-    <col min="11011" max="11011" width="144.81640625" style="23" customWidth="1"/>
-    <col min="11012" max="11265" width="8.7265625" style="23"/>
-    <col min="11266" max="11266" width="11.1796875" style="23" customWidth="1"/>
-    <col min="11267" max="11267" width="144.81640625" style="23" customWidth="1"/>
-    <col min="11268" max="11521" width="8.7265625" style="23"/>
-    <col min="11522" max="11522" width="11.1796875" style="23" customWidth="1"/>
-    <col min="11523" max="11523" width="144.81640625" style="23" customWidth="1"/>
-    <col min="11524" max="11777" width="8.7265625" style="23"/>
-    <col min="11778" max="11778" width="11.1796875" style="23" customWidth="1"/>
-    <col min="11779" max="11779" width="144.81640625" style="23" customWidth="1"/>
-    <col min="11780" max="12033" width="8.7265625" style="23"/>
-    <col min="12034" max="12034" width="11.1796875" style="23" customWidth="1"/>
-    <col min="12035" max="12035" width="144.81640625" style="23" customWidth="1"/>
-    <col min="12036" max="12289" width="8.7265625" style="23"/>
-    <col min="12290" max="12290" width="11.1796875" style="23" customWidth="1"/>
-    <col min="12291" max="12291" width="144.81640625" style="23" customWidth="1"/>
-    <col min="12292" max="12545" width="8.7265625" style="23"/>
-    <col min="12546" max="12546" width="11.1796875" style="23" customWidth="1"/>
-    <col min="12547" max="12547" width="144.81640625" style="23" customWidth="1"/>
-    <col min="12548" max="12801" width="8.7265625" style="23"/>
-    <col min="12802" max="12802" width="11.1796875" style="23" customWidth="1"/>
-    <col min="12803" max="12803" width="144.81640625" style="23" customWidth="1"/>
-    <col min="12804" max="13057" width="8.7265625" style="23"/>
-    <col min="13058" max="13058" width="11.1796875" style="23" customWidth="1"/>
-    <col min="13059" max="13059" width="144.81640625" style="23" customWidth="1"/>
-    <col min="13060" max="13313" width="8.7265625" style="23"/>
-    <col min="13314" max="13314" width="11.1796875" style="23" customWidth="1"/>
-    <col min="13315" max="13315" width="144.81640625" style="23" customWidth="1"/>
-    <col min="13316" max="13569" width="8.7265625" style="23"/>
-    <col min="13570" max="13570" width="11.1796875" style="23" customWidth="1"/>
-    <col min="13571" max="13571" width="144.81640625" style="23" customWidth="1"/>
-    <col min="13572" max="13825" width="8.7265625" style="23"/>
-    <col min="13826" max="13826" width="11.1796875" style="23" customWidth="1"/>
-    <col min="13827" max="13827" width="144.81640625" style="23" customWidth="1"/>
-    <col min="13828" max="14081" width="8.7265625" style="23"/>
-    <col min="14082" max="14082" width="11.1796875" style="23" customWidth="1"/>
-    <col min="14083" max="14083" width="144.81640625" style="23" customWidth="1"/>
-    <col min="14084" max="14337" width="8.7265625" style="23"/>
-    <col min="14338" max="14338" width="11.1796875" style="23" customWidth="1"/>
-    <col min="14339" max="14339" width="144.81640625" style="23" customWidth="1"/>
-    <col min="14340" max="14593" width="8.7265625" style="23"/>
-    <col min="14594" max="14594" width="11.1796875" style="23" customWidth="1"/>
-    <col min="14595" max="14595" width="144.81640625" style="23" customWidth="1"/>
-    <col min="14596" max="14849" width="8.7265625" style="23"/>
-    <col min="14850" max="14850" width="11.1796875" style="23" customWidth="1"/>
-    <col min="14851" max="14851" width="144.81640625" style="23" customWidth="1"/>
-    <col min="14852" max="15105" width="8.7265625" style="23"/>
-    <col min="15106" max="15106" width="11.1796875" style="23" customWidth="1"/>
-    <col min="15107" max="15107" width="144.81640625" style="23" customWidth="1"/>
-    <col min="15108" max="15361" width="8.7265625" style="23"/>
-    <col min="15362" max="15362" width="11.1796875" style="23" customWidth="1"/>
-    <col min="15363" max="15363" width="144.81640625" style="23" customWidth="1"/>
-    <col min="15364" max="15617" width="8.7265625" style="23"/>
-    <col min="15618" max="15618" width="11.1796875" style="23" customWidth="1"/>
-    <col min="15619" max="15619" width="144.81640625" style="23" customWidth="1"/>
-    <col min="15620" max="15873" width="8.7265625" style="23"/>
-    <col min="15874" max="15874" width="11.1796875" style="23" customWidth="1"/>
-    <col min="15875" max="15875" width="144.81640625" style="23" customWidth="1"/>
-    <col min="15876" max="16129" width="8.7265625" style="23"/>
-    <col min="16130" max="16130" width="11.1796875" style="23" customWidth="1"/>
-    <col min="16131" max="16131" width="144.81640625" style="23" customWidth="1"/>
-    <col min="16132" max="16384" width="8.7265625" style="23"/>
+    <col min="1" max="1" width="8.7109375" style="22"/>
+    <col min="2" max="2" width="11.140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="144.85546875" style="22" customWidth="1"/>
+    <col min="4" max="257" width="8.7109375" style="23"/>
+    <col min="258" max="258" width="11.140625" style="23" customWidth="1"/>
+    <col min="259" max="259" width="144.85546875" style="23" customWidth="1"/>
+    <col min="260" max="513" width="8.7109375" style="23"/>
+    <col min="514" max="514" width="11.140625" style="23" customWidth="1"/>
+    <col min="515" max="515" width="144.85546875" style="23" customWidth="1"/>
+    <col min="516" max="769" width="8.7109375" style="23"/>
+    <col min="770" max="770" width="11.140625" style="23" customWidth="1"/>
+    <col min="771" max="771" width="144.85546875" style="23" customWidth="1"/>
+    <col min="772" max="1025" width="8.7109375" style="23"/>
+    <col min="1026" max="1026" width="11.140625" style="23" customWidth="1"/>
+    <col min="1027" max="1027" width="144.85546875" style="23" customWidth="1"/>
+    <col min="1028" max="1281" width="8.7109375" style="23"/>
+    <col min="1282" max="1282" width="11.140625" style="23" customWidth="1"/>
+    <col min="1283" max="1283" width="144.85546875" style="23" customWidth="1"/>
+    <col min="1284" max="1537" width="8.7109375" style="23"/>
+    <col min="1538" max="1538" width="11.140625" style="23" customWidth="1"/>
+    <col min="1539" max="1539" width="144.85546875" style="23" customWidth="1"/>
+    <col min="1540" max="1793" width="8.7109375" style="23"/>
+    <col min="1794" max="1794" width="11.140625" style="23" customWidth="1"/>
+    <col min="1795" max="1795" width="144.85546875" style="23" customWidth="1"/>
+    <col min="1796" max="2049" width="8.7109375" style="23"/>
+    <col min="2050" max="2050" width="11.140625" style="23" customWidth="1"/>
+    <col min="2051" max="2051" width="144.85546875" style="23" customWidth="1"/>
+    <col min="2052" max="2305" width="8.7109375" style="23"/>
+    <col min="2306" max="2306" width="11.140625" style="23" customWidth="1"/>
+    <col min="2307" max="2307" width="144.85546875" style="23" customWidth="1"/>
+    <col min="2308" max="2561" width="8.7109375" style="23"/>
+    <col min="2562" max="2562" width="11.140625" style="23" customWidth="1"/>
+    <col min="2563" max="2563" width="144.85546875" style="23" customWidth="1"/>
+    <col min="2564" max="2817" width="8.7109375" style="23"/>
+    <col min="2818" max="2818" width="11.140625" style="23" customWidth="1"/>
+    <col min="2819" max="2819" width="144.85546875" style="23" customWidth="1"/>
+    <col min="2820" max="3073" width="8.7109375" style="23"/>
+    <col min="3074" max="3074" width="11.140625" style="23" customWidth="1"/>
+    <col min="3075" max="3075" width="144.85546875" style="23" customWidth="1"/>
+    <col min="3076" max="3329" width="8.7109375" style="23"/>
+    <col min="3330" max="3330" width="11.140625" style="23" customWidth="1"/>
+    <col min="3331" max="3331" width="144.85546875" style="23" customWidth="1"/>
+    <col min="3332" max="3585" width="8.7109375" style="23"/>
+    <col min="3586" max="3586" width="11.140625" style="23" customWidth="1"/>
+    <col min="3587" max="3587" width="144.85546875" style="23" customWidth="1"/>
+    <col min="3588" max="3841" width="8.7109375" style="23"/>
+    <col min="3842" max="3842" width="11.140625" style="23" customWidth="1"/>
+    <col min="3843" max="3843" width="144.85546875" style="23" customWidth="1"/>
+    <col min="3844" max="4097" width="8.7109375" style="23"/>
+    <col min="4098" max="4098" width="11.140625" style="23" customWidth="1"/>
+    <col min="4099" max="4099" width="144.85546875" style="23" customWidth="1"/>
+    <col min="4100" max="4353" width="8.7109375" style="23"/>
+    <col min="4354" max="4354" width="11.140625" style="23" customWidth="1"/>
+    <col min="4355" max="4355" width="144.85546875" style="23" customWidth="1"/>
+    <col min="4356" max="4609" width="8.7109375" style="23"/>
+    <col min="4610" max="4610" width="11.140625" style="23" customWidth="1"/>
+    <col min="4611" max="4611" width="144.85546875" style="23" customWidth="1"/>
+    <col min="4612" max="4865" width="8.7109375" style="23"/>
+    <col min="4866" max="4866" width="11.140625" style="23" customWidth="1"/>
+    <col min="4867" max="4867" width="144.85546875" style="23" customWidth="1"/>
+    <col min="4868" max="5121" width="8.7109375" style="23"/>
+    <col min="5122" max="5122" width="11.140625" style="23" customWidth="1"/>
+    <col min="5123" max="5123" width="144.85546875" style="23" customWidth="1"/>
+    <col min="5124" max="5377" width="8.7109375" style="23"/>
+    <col min="5378" max="5378" width="11.140625" style="23" customWidth="1"/>
+    <col min="5379" max="5379" width="144.85546875" style="23" customWidth="1"/>
+    <col min="5380" max="5633" width="8.7109375" style="23"/>
+    <col min="5634" max="5634" width="11.140625" style="23" customWidth="1"/>
+    <col min="5635" max="5635" width="144.85546875" style="23" customWidth="1"/>
+    <col min="5636" max="5889" width="8.7109375" style="23"/>
+    <col min="5890" max="5890" width="11.140625" style="23" customWidth="1"/>
+    <col min="5891" max="5891" width="144.85546875" style="23" customWidth="1"/>
+    <col min="5892" max="6145" width="8.7109375" style="23"/>
+    <col min="6146" max="6146" width="11.140625" style="23" customWidth="1"/>
+    <col min="6147" max="6147" width="144.85546875" style="23" customWidth="1"/>
+    <col min="6148" max="6401" width="8.7109375" style="23"/>
+    <col min="6402" max="6402" width="11.140625" style="23" customWidth="1"/>
+    <col min="6403" max="6403" width="144.85546875" style="23" customWidth="1"/>
+    <col min="6404" max="6657" width="8.7109375" style="23"/>
+    <col min="6658" max="6658" width="11.140625" style="23" customWidth="1"/>
+    <col min="6659" max="6659" width="144.85546875" style="23" customWidth="1"/>
+    <col min="6660" max="6913" width="8.7109375" style="23"/>
+    <col min="6914" max="6914" width="11.140625" style="23" customWidth="1"/>
+    <col min="6915" max="6915" width="144.85546875" style="23" customWidth="1"/>
+    <col min="6916" max="7169" width="8.7109375" style="23"/>
+    <col min="7170" max="7170" width="11.140625" style="23" customWidth="1"/>
+    <col min="7171" max="7171" width="144.85546875" style="23" customWidth="1"/>
+    <col min="7172" max="7425" width="8.7109375" style="23"/>
+    <col min="7426" max="7426" width="11.140625" style="23" customWidth="1"/>
+    <col min="7427" max="7427" width="144.85546875" style="23" customWidth="1"/>
+    <col min="7428" max="7681" width="8.7109375" style="23"/>
+    <col min="7682" max="7682" width="11.140625" style="23" customWidth="1"/>
+    <col min="7683" max="7683" width="144.85546875" style="23" customWidth="1"/>
+    <col min="7684" max="7937" width="8.7109375" style="23"/>
+    <col min="7938" max="7938" width="11.140625" style="23" customWidth="1"/>
+    <col min="7939" max="7939" width="144.85546875" style="23" customWidth="1"/>
+    <col min="7940" max="8193" width="8.7109375" style="23"/>
+    <col min="8194" max="8194" width="11.140625" style="23" customWidth="1"/>
+    <col min="8195" max="8195" width="144.85546875" style="23" customWidth="1"/>
+    <col min="8196" max="8449" width="8.7109375" style="23"/>
+    <col min="8450" max="8450" width="11.140625" style="23" customWidth="1"/>
+    <col min="8451" max="8451" width="144.85546875" style="23" customWidth="1"/>
+    <col min="8452" max="8705" width="8.7109375" style="23"/>
+    <col min="8706" max="8706" width="11.140625" style="23" customWidth="1"/>
+    <col min="8707" max="8707" width="144.85546875" style="23" customWidth="1"/>
+    <col min="8708" max="8961" width="8.7109375" style="23"/>
+    <col min="8962" max="8962" width="11.140625" style="23" customWidth="1"/>
+    <col min="8963" max="8963" width="144.85546875" style="23" customWidth="1"/>
+    <col min="8964" max="9217" width="8.7109375" style="23"/>
+    <col min="9218" max="9218" width="11.140625" style="23" customWidth="1"/>
+    <col min="9219" max="9219" width="144.85546875" style="23" customWidth="1"/>
+    <col min="9220" max="9473" width="8.7109375" style="23"/>
+    <col min="9474" max="9474" width="11.140625" style="23" customWidth="1"/>
+    <col min="9475" max="9475" width="144.85546875" style="23" customWidth="1"/>
+    <col min="9476" max="9729" width="8.7109375" style="23"/>
+    <col min="9730" max="9730" width="11.140625" style="23" customWidth="1"/>
+    <col min="9731" max="9731" width="144.85546875" style="23" customWidth="1"/>
+    <col min="9732" max="9985" width="8.7109375" style="23"/>
+    <col min="9986" max="9986" width="11.140625" style="23" customWidth="1"/>
+    <col min="9987" max="9987" width="144.85546875" style="23" customWidth="1"/>
+    <col min="9988" max="10241" width="8.7109375" style="23"/>
+    <col min="10242" max="10242" width="11.140625" style="23" customWidth="1"/>
+    <col min="10243" max="10243" width="144.85546875" style="23" customWidth="1"/>
+    <col min="10244" max="10497" width="8.7109375" style="23"/>
+    <col min="10498" max="10498" width="11.140625" style="23" customWidth="1"/>
+    <col min="10499" max="10499" width="144.85546875" style="23" customWidth="1"/>
+    <col min="10500" max="10753" width="8.7109375" style="23"/>
+    <col min="10754" max="10754" width="11.140625" style="23" customWidth="1"/>
+    <col min="10755" max="10755" width="144.85546875" style="23" customWidth="1"/>
+    <col min="10756" max="11009" width="8.7109375" style="23"/>
+    <col min="11010" max="11010" width="11.140625" style="23" customWidth="1"/>
+    <col min="11011" max="11011" width="144.85546875" style="23" customWidth="1"/>
+    <col min="11012" max="11265" width="8.7109375" style="23"/>
+    <col min="11266" max="11266" width="11.140625" style="23" customWidth="1"/>
+    <col min="11267" max="11267" width="144.85546875" style="23" customWidth="1"/>
+    <col min="11268" max="11521" width="8.7109375" style="23"/>
+    <col min="11522" max="11522" width="11.140625" style="23" customWidth="1"/>
+    <col min="11523" max="11523" width="144.85546875" style="23" customWidth="1"/>
+    <col min="11524" max="11777" width="8.7109375" style="23"/>
+    <col min="11778" max="11778" width="11.140625" style="23" customWidth="1"/>
+    <col min="11779" max="11779" width="144.85546875" style="23" customWidth="1"/>
+    <col min="11780" max="12033" width="8.7109375" style="23"/>
+    <col min="12034" max="12034" width="11.140625" style="23" customWidth="1"/>
+    <col min="12035" max="12035" width="144.85546875" style="23" customWidth="1"/>
+    <col min="12036" max="12289" width="8.7109375" style="23"/>
+    <col min="12290" max="12290" width="11.140625" style="23" customWidth="1"/>
+    <col min="12291" max="12291" width="144.85546875" style="23" customWidth="1"/>
+    <col min="12292" max="12545" width="8.7109375" style="23"/>
+    <col min="12546" max="12546" width="11.140625" style="23" customWidth="1"/>
+    <col min="12547" max="12547" width="144.85546875" style="23" customWidth="1"/>
+    <col min="12548" max="12801" width="8.7109375" style="23"/>
+    <col min="12802" max="12802" width="11.140625" style="23" customWidth="1"/>
+    <col min="12803" max="12803" width="144.85546875" style="23" customWidth="1"/>
+    <col min="12804" max="13057" width="8.7109375" style="23"/>
+    <col min="13058" max="13058" width="11.140625" style="23" customWidth="1"/>
+    <col min="13059" max="13059" width="144.85546875" style="23" customWidth="1"/>
+    <col min="13060" max="13313" width="8.7109375" style="23"/>
+    <col min="13314" max="13314" width="11.140625" style="23" customWidth="1"/>
+    <col min="13315" max="13315" width="144.85546875" style="23" customWidth="1"/>
+    <col min="13316" max="13569" width="8.7109375" style="23"/>
+    <col min="13570" max="13570" width="11.140625" style="23" customWidth="1"/>
+    <col min="13571" max="13571" width="144.85546875" style="23" customWidth="1"/>
+    <col min="13572" max="13825" width="8.7109375" style="23"/>
+    <col min="13826" max="13826" width="11.140625" style="23" customWidth="1"/>
+    <col min="13827" max="13827" width="144.85546875" style="23" customWidth="1"/>
+    <col min="13828" max="14081" width="8.7109375" style="23"/>
+    <col min="14082" max="14082" width="11.140625" style="23" customWidth="1"/>
+    <col min="14083" max="14083" width="144.85546875" style="23" customWidth="1"/>
+    <col min="14084" max="14337" width="8.7109375" style="23"/>
+    <col min="14338" max="14338" width="11.140625" style="23" customWidth="1"/>
+    <col min="14339" max="14339" width="144.85546875" style="23" customWidth="1"/>
+    <col min="14340" max="14593" width="8.7109375" style="23"/>
+    <col min="14594" max="14594" width="11.140625" style="23" customWidth="1"/>
+    <col min="14595" max="14595" width="144.85546875" style="23" customWidth="1"/>
+    <col min="14596" max="14849" width="8.7109375" style="23"/>
+    <col min="14850" max="14850" width="11.140625" style="23" customWidth="1"/>
+    <col min="14851" max="14851" width="144.85546875" style="23" customWidth="1"/>
+    <col min="14852" max="15105" width="8.7109375" style="23"/>
+    <col min="15106" max="15106" width="11.140625" style="23" customWidth="1"/>
+    <col min="15107" max="15107" width="144.85546875" style="23" customWidth="1"/>
+    <col min="15108" max="15361" width="8.7109375" style="23"/>
+    <col min="15362" max="15362" width="11.140625" style="23" customWidth="1"/>
+    <col min="15363" max="15363" width="144.85546875" style="23" customWidth="1"/>
+    <col min="15364" max="15617" width="8.7109375" style="23"/>
+    <col min="15618" max="15618" width="11.140625" style="23" customWidth="1"/>
+    <col min="15619" max="15619" width="144.85546875" style="23" customWidth="1"/>
+    <col min="15620" max="15873" width="8.7109375" style="23"/>
+    <col min="15874" max="15874" width="11.140625" style="23" customWidth="1"/>
+    <col min="15875" max="15875" width="144.85546875" style="23" customWidth="1"/>
+    <col min="15876" max="16129" width="8.7109375" style="23"/>
+    <col min="16130" max="16130" width="11.140625" style="23" customWidth="1"/>
+    <col min="16131" max="16131" width="144.85546875" style="23" customWidth="1"/>
+    <col min="16132" max="16384" width="8.7109375" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -3617,7 +3654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A3" s="22">
         <v>10521</v>
       </c>
@@ -3628,7 +3665,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
         <v>10526</v>
       </c>
@@ -3639,7 +3676,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A5" s="22">
         <v>10531</v>
       </c>
@@ -3650,7 +3687,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>10536</v>
       </c>
@@ -3661,7 +3698,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <v>10541</v>
       </c>
@@ -3672,7 +3709,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <v>10546</v>
       </c>
@@ -3683,7 +3720,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="130" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>10551</v>
       </c>
@@ -3694,7 +3731,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>10556</v>
       </c>
@@ -3705,7 +3742,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>10559</v>
       </c>
@@ -3716,7 +3753,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="220" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="281.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>11016</v>
       </c>
@@ -3727,7 +3764,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="220" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="281.25" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>10566</v>
       </c>
@@ -3738,7 +3775,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="220" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="281.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>10571</v>
       </c>
@@ -3749,7 +3786,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="210" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="270" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>11021</v>
       </c>
@@ -3760,7 +3797,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="210" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="270" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
         <v>10576</v>
       </c>
@@ -3771,7 +3808,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="210" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="270" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>10581</v>
       </c>
@@ -3782,7 +3819,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="190" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="247.5" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>11011</v>
       </c>
@@ -3793,7 +3830,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="190" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="247.5" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>11001</v>
       </c>
@@ -3804,7 +3841,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="190" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="247.5" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>11006</v>
       </c>
@@ -3815,7 +3852,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="210" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="270" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <v>11026</v>
       </c>
@@ -3826,7 +3863,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="210" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="258.75" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <v>10586</v>
       </c>
@@ -3837,7 +3874,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="210" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="258.75" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <v>10591</v>
       </c>
@@ -3848,7 +3885,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <v>11031</v>
       </c>
@@ -3859,7 +3896,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="210" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="258.75" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>10596</v>
       </c>
@@ -3870,7 +3907,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="210" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="258.75" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>10601</v>
       </c>
@@ -3881,7 +3918,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="130" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
         <v>10611</v>
       </c>
@@ -3892,7 +3929,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="130" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A28" s="23">
         <v>10616</v>
       </c>
@@ -3903,7 +3940,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="150" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
         <v>10621</v>
       </c>
@@ -3914,7 +3951,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="160" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A30" s="23">
         <v>10626</v>
       </c>
@@ -3925,7 +3962,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="130" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A31" s="23">
         <v>10631</v>
       </c>
@@ -3936,7 +3973,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="130" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A32" s="23">
         <v>10636</v>
       </c>
@@ -3947,7 +3984,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="130" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A33" s="23">
         <v>10641</v>
       </c>
@@ -3958,7 +3995,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="130" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A34" s="23">
         <v>10646</v>
       </c>
@@ -3969,7 +4006,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="150" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A35" s="23">
         <v>10651</v>
       </c>
@@ -3980,7 +4017,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="150" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A36" s="23">
         <v>10656</v>
       </c>
@@ -3991,7 +4028,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="150" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A37" s="23">
         <v>10661</v>
       </c>
@@ -4002,7 +4039,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="150" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A38" s="23">
         <v>10666</v>
       </c>
@@ -4013,7 +4050,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="150" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A39" s="23">
         <v>10671</v>
       </c>
@@ -4024,7 +4061,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="150" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A40" s="23">
         <v>10676</v>
       </c>
@@ -4075,166 +4112,38 @@
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="23"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="23"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="23"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="23"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="23"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="23"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="23"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="23"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="23"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="23"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="23"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="23"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="23"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="23"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="23"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-    </row>
+    <row r="49" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="81" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="82" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="83" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -4284,25 +4193,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F1463"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="7"/>
-    <col min="4" max="4" width="60.453125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="12"/>
-    <col min="6" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="9.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="7"/>
+    <col min="4" max="4" width="60.42578125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="12"/>
+    <col min="6" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4322,7 +4232,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>10521</v>
       </c>
@@ -4342,7 +4252,7 @@
         <v>76.12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>10521</v>
       </c>
@@ -4362,7 +4272,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>10521</v>
       </c>
@@ -4382,7 +4292,7 @@
         <v>7.62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>10521</v>
       </c>
@@ -4402,7 +4312,7 @@
         <v>11.46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>10526</v>
       </c>
@@ -4422,7 +4332,7 @@
         <v>6.97</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>10526</v>
       </c>
@@ -4442,7 +4352,7 @@
         <v>17.420000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>10526</v>
       </c>
@@ -4462,7 +4372,7 @@
         <v>30.44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>10526</v>
       </c>
@@ -4482,7 +4392,7 @@
         <v>45.18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>10531</v>
       </c>
@@ -4502,7 +4412,7 @@
         <v>87.23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10531</v>
       </c>
@@ -4522,7 +4432,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>10531</v>
       </c>
@@ -4542,7 +4452,7 @@
         <v>6.11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>10531</v>
       </c>
@@ -4562,7 +4472,7 @@
         <v>4.54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>10536</v>
       </c>
@@ -4582,7 +4492,7 @@
         <v>30.89</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>10536</v>
       </c>
@@ -4602,7 +4512,7 @@
         <v>6.31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>10536</v>
       </c>
@@ -4622,7 +4532,7 @@
         <v>36.35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>10536</v>
       </c>
@@ -4642,7 +4552,7 @@
         <v>26.45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>10541</v>
       </c>
@@ -4662,7 +4572,7 @@
         <v>35.590000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>10541</v>
       </c>
@@ -4682,7 +4592,7 @@
         <v>12.62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>10541</v>
       </c>
@@ -4702,7 +4612,7 @@
         <v>17.420000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>10541</v>
       </c>
@@ -4722,7 +4632,7 @@
         <v>34.380000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>10546</v>
       </c>
@@ -4742,7 +4652,7 @@
         <v>9.44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>10546</v>
       </c>
@@ -4762,7 +4672,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>10546</v>
       </c>
@@ -4782,7 +4692,7 @@
         <v>10.35</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>10546</v>
       </c>
@@ -4802,7 +4712,7 @@
         <v>74.150000000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>10551</v>
       </c>
@@ -4822,7 +4732,7 @@
         <v>9.34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>10551</v>
       </c>
@@ -4842,7 +4752,7 @@
         <v>45.89</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>10551</v>
       </c>
@@ -4862,7 +4772,7 @@
         <v>14.49</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>10551</v>
       </c>
@@ -4882,7 +4792,7 @@
         <v>30.29</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>10556</v>
       </c>
@@ -4902,7 +4812,7 @@
         <v>62.19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>10556</v>
       </c>
@@ -4922,7 +4832,7 @@
         <v>6.51</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>10556</v>
       </c>
@@ -4942,7 +4852,7 @@
         <v>10.35</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>10556</v>
       </c>
@@ -4962,7 +4872,7 @@
         <v>20.95</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>10559</v>
       </c>
@@ -4982,7 +4892,7 @@
         <v>11.91</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>10559</v>
       </c>
@@ -5002,7 +4912,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>10559</v>
       </c>
@@ -5022,7 +4932,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>10559</v>
       </c>
@@ -5042,3557 +4952,3564 @@
         <v>83.44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D61" s="7"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D64" s="7"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D65" s="7"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" s="7"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D67" s="7"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D68" s="7"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D70" s="7"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D71" s="7"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D74" s="7"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D75" s="7"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" s="7"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D80" s="7"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D81" s="7"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D82" s="7"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D84" s="7"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D85" s="7"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="7"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D88" s="7"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D90" s="7"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D92" s="7"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D94" s="7"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D95" s="7"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D96" s="7"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97" s="7"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D98" s="7"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D99" s="7"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D100" s="7"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D101" s="7"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D102" s="7"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D103" s="7"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D104" s="7"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D105" s="7"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D106" s="7"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D107" s="7"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D108" s="7"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D109" s="7"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D110" s="7"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D111" s="7"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D112" s="7"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D113" s="7"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D114" s="7"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D115" s="7"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D116" s="7"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D117" s="7"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D118" s="7"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D119" s="7"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D120" s="7"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D121" s="7"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D122" s="7"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D123" s="7"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D124" s="7"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D125" s="7"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D126" s="7"/>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D127" s="7"/>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D128" s="7"/>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D134" s="13"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D138" s="13"/>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D143" s="13"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D149" s="13"/>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D155" s="13"/>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D161" s="13"/>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D167" s="13"/>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D173" s="13"/>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D179" s="13"/>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D185" s="13"/>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D191" s="13"/>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D195" s="13"/>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D200" s="13"/>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D203" s="13"/>
     </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D206" s="13"/>
     </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D209" s="13"/>
     </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D212" s="13"/>
     </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D215" s="13"/>
     </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D218" s="13"/>
     </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D221" s="13"/>
     </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D224" s="13"/>
     </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D227" s="13"/>
     </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D230" s="13"/>
     </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D233" s="13"/>
     </row>
-    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D236" s="13"/>
     </row>
-    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D239" s="13"/>
     </row>
-    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D240" s="13"/>
     </row>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D242" s="13"/>
     </row>
-    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D245" s="13"/>
     </row>
-    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D253" s="13"/>
     </row>
-    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D256" s="13"/>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D259" s="13"/>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D262" s="13"/>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D265" s="13"/>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D268" s="13"/>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D271" s="13"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D275" s="13"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D279" s="13"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D283" s="13"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D287" s="13"/>
     </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D291" s="13"/>
     </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D295" s="13"/>
     </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D299" s="13"/>
     </row>
-    <row r="303" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D303" s="13"/>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D307" s="13"/>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D308" s="13"/>
     </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D321" s="7"/>
     </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D322" s="7"/>
     </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D323" s="7"/>
     </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D324" s="7"/>
     </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D325" s="7"/>
     </row>
-    <row r="326" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D326" s="7"/>
     </row>
-    <row r="327" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D327" s="7"/>
     </row>
-    <row r="328" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D328" s="7"/>
     </row>
-    <row r="329" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D329" s="7"/>
     </row>
-    <row r="330" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D330" s="7"/>
     </row>
-    <row r="331" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D331" s="7"/>
     </row>
-    <row r="332" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D332" s="7"/>
     </row>
-    <row r="333" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D333" s="7"/>
     </row>
-    <row r="334" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D334" s="7"/>
     </row>
-    <row r="335" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D335" s="7"/>
     </row>
-    <row r="336" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D336" s="7"/>
     </row>
-    <row r="337" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D337" s="7"/>
     </row>
-    <row r="338" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D338" s="7"/>
     </row>
-    <row r="339" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D339" s="7"/>
     </row>
-    <row r="340" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D340" s="7"/>
     </row>
-    <row r="341" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D341" s="7"/>
     </row>
-    <row r="342" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D342" s="7"/>
     </row>
-    <row r="343" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D343" s="7"/>
     </row>
-    <row r="344" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D344" s="7"/>
     </row>
-    <row r="345" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D345" s="7"/>
     </row>
-    <row r="346" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D346" s="7"/>
     </row>
-    <row r="347" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D347" s="7"/>
     </row>
-    <row r="348" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D348" s="7"/>
     </row>
-    <row r="349" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D349" s="7"/>
     </row>
-    <row r="350" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D350" s="7"/>
     </row>
-    <row r="351" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D351" s="7"/>
     </row>
-    <row r="352" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D352" s="7"/>
     </row>
-    <row r="353" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D353" s="7"/>
     </row>
-    <row r="354" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D354" s="7"/>
     </row>
-    <row r="355" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D355" s="7"/>
     </row>
-    <row r="356" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D356" s="7"/>
     </row>
-    <row r="357" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D357" s="7"/>
     </row>
-    <row r="358" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D358" s="7"/>
     </row>
-    <row r="359" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D359" s="7"/>
     </row>
-    <row r="360" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D360" s="7"/>
     </row>
-    <row r="361" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D361" s="7"/>
     </row>
-    <row r="362" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D362" s="7"/>
     </row>
-    <row r="363" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D363" s="7"/>
     </row>
-    <row r="364" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D364" s="7"/>
     </row>
-    <row r="365" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D365" s="7"/>
     </row>
-    <row r="366" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D366" s="7"/>
     </row>
-    <row r="367" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D367" s="7"/>
     </row>
-    <row r="368" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D368" s="7"/>
     </row>
-    <row r="369" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D369" s="7"/>
     </row>
-    <row r="370" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D370" s="7"/>
     </row>
-    <row r="371" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D371" s="7"/>
     </row>
-    <row r="372" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D372" s="7"/>
     </row>
-    <row r="373" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D373" s="7"/>
     </row>
-    <row r="374" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D374" s="7"/>
     </row>
-    <row r="375" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D375" s="7"/>
     </row>
-    <row r="376" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D376" s="7"/>
     </row>
-    <row r="377" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D377" s="7"/>
     </row>
-    <row r="378" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D378" s="7"/>
     </row>
-    <row r="379" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D379" s="7"/>
     </row>
-    <row r="380" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D380" s="7"/>
     </row>
-    <row r="381" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D381" s="7"/>
     </row>
-    <row r="382" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D382" s="7"/>
     </row>
-    <row r="383" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D383" s="7"/>
     </row>
-    <row r="384" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D384" s="7"/>
     </row>
-    <row r="385" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D385" s="7"/>
     </row>
-    <row r="386" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D386" s="7"/>
     </row>
-    <row r="387" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D387" s="7"/>
     </row>
-    <row r="388" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D388" s="7"/>
     </row>
-    <row r="389" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D389" s="7"/>
     </row>
-    <row r="390" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D390" s="7"/>
     </row>
-    <row r="391" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D391" s="7"/>
     </row>
-    <row r="392" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D392" s="7"/>
     </row>
-    <row r="393" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D393" s="7"/>
     </row>
-    <row r="394" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D394" s="7"/>
     </row>
-    <row r="395" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D395" s="7"/>
     </row>
-    <row r="396" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D396" s="7"/>
     </row>
-    <row r="397" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D397" s="7"/>
     </row>
-    <row r="398" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D398" s="7"/>
     </row>
-    <row r="399" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D399" s="7"/>
     </row>
-    <row r="400" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D400" s="7"/>
     </row>
-    <row r="409" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D409" s="13"/>
     </row>
-    <row r="413" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D413" s="13"/>
     </row>
-    <row r="414" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D414" s="13"/>
     </row>
-    <row r="417" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D417" s="7"/>
     </row>
-    <row r="418" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D418" s="7"/>
     </row>
-    <row r="419" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D419" s="7"/>
     </row>
-    <row r="420" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D420" s="7"/>
     </row>
-    <row r="421" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D421" s="7"/>
     </row>
-    <row r="422" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D422" s="7"/>
     </row>
-    <row r="423" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D423" s="7"/>
     </row>
-    <row r="424" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D424" s="7"/>
     </row>
-    <row r="425" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D425" s="7"/>
     </row>
-    <row r="426" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D426" s="7"/>
     </row>
-    <row r="427" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D427" s="7"/>
     </row>
-    <row r="428" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D428" s="7"/>
     </row>
-    <row r="429" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D429" s="7"/>
     </row>
-    <row r="430" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D430" s="7"/>
     </row>
-    <row r="431" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D431" s="7"/>
     </row>
-    <row r="432" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D432" s="7"/>
     </row>
-    <row r="433" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D433" s="7"/>
     </row>
-    <row r="434" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D434" s="7"/>
     </row>
-    <row r="435" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D435" s="7"/>
     </row>
-    <row r="436" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D436" s="7"/>
     </row>
-    <row r="437" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D437" s="7"/>
     </row>
-    <row r="438" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D438" s="7"/>
     </row>
-    <row r="439" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D439" s="7"/>
     </row>
-    <row r="440" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D440" s="7"/>
     </row>
-    <row r="441" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D441" s="7"/>
     </row>
-    <row r="442" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D442" s="7"/>
     </row>
-    <row r="443" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D443" s="7"/>
     </row>
-    <row r="444" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D444" s="7"/>
     </row>
-    <row r="445" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D445" s="7"/>
     </row>
-    <row r="446" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D446" s="7"/>
     </row>
-    <row r="447" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D447" s="7"/>
     </row>
-    <row r="448" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D448" s="7"/>
     </row>
-    <row r="449" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D449" s="7"/>
     </row>
-    <row r="450" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D450" s="7"/>
     </row>
-    <row r="451" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D451" s="7"/>
     </row>
-    <row r="452" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D452" s="7"/>
     </row>
-    <row r="453" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D453" s="7"/>
     </row>
-    <row r="454" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D454" s="7"/>
     </row>
-    <row r="455" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D455" s="7"/>
     </row>
-    <row r="456" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D456" s="7"/>
     </row>
-    <row r="457" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D457" s="7"/>
     </row>
-    <row r="458" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D458" s="7"/>
     </row>
-    <row r="459" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D459" s="7"/>
     </row>
-    <row r="460" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D460" s="7"/>
     </row>
-    <row r="461" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D461" s="7"/>
     </row>
-    <row r="462" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D462" s="7"/>
     </row>
-    <row r="463" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D463" s="7"/>
     </row>
-    <row r="464" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D464" s="7"/>
     </row>
-    <row r="465" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D465" s="7"/>
     </row>
-    <row r="466" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D466" s="7"/>
     </row>
-    <row r="467" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D467" s="7"/>
     </row>
-    <row r="468" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D468" s="7"/>
     </row>
-    <row r="469" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D469" s="7"/>
     </row>
-    <row r="470" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D470" s="7"/>
     </row>
-    <row r="471" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D471" s="7"/>
     </row>
-    <row r="472" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D472" s="7"/>
     </row>
-    <row r="473" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D473" s="7"/>
     </row>
-    <row r="474" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D474" s="7"/>
     </row>
-    <row r="475" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D475" s="7"/>
     </row>
-    <row r="476" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D476" s="7"/>
     </row>
-    <row r="477" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D477" s="7"/>
     </row>
-    <row r="478" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D478" s="7"/>
     </row>
-    <row r="479" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D479" s="7"/>
     </row>
-    <row r="480" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D480" s="7"/>
     </row>
-    <row r="481" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D481" s="7"/>
     </row>
-    <row r="482" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D482" s="7"/>
     </row>
-    <row r="483" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D483" s="7"/>
     </row>
-    <row r="484" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D484" s="7"/>
     </row>
-    <row r="485" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D485" s="7"/>
     </row>
-    <row r="486" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D486" s="7"/>
     </row>
-    <row r="487" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D487" s="7"/>
     </row>
-    <row r="488" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D488" s="7"/>
     </row>
-    <row r="489" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D489" s="7"/>
     </row>
-    <row r="490" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D490" s="7"/>
     </row>
-    <row r="491" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D491" s="7"/>
     </row>
-    <row r="492" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D492" s="7"/>
     </row>
-    <row r="493" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D493" s="7"/>
     </row>
-    <row r="494" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D494" s="7"/>
     </row>
-    <row r="495" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D495" s="7"/>
     </row>
-    <row r="496" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D496" s="7"/>
     </row>
-    <row r="497" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D497" s="7"/>
     </row>
-    <row r="498" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D498" s="7"/>
     </row>
-    <row r="499" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D499" s="7"/>
     </row>
-    <row r="500" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D500" s="7"/>
     </row>
-    <row r="501" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D501" s="7"/>
     </row>
-    <row r="502" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D502" s="7"/>
     </row>
-    <row r="503" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D503" s="7"/>
     </row>
-    <row r="504" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D504" s="7"/>
     </row>
-    <row r="505" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D505" s="7"/>
     </row>
-    <row r="506" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D506" s="7"/>
     </row>
-    <row r="507" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D507" s="7"/>
     </row>
-    <row r="508" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D508" s="7"/>
     </row>
-    <row r="509" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D509" s="7"/>
     </row>
-    <row r="510" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D510" s="7"/>
     </row>
-    <row r="511" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D511" s="7"/>
     </row>
-    <row r="512" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D512" s="7"/>
     </row>
-    <row r="513" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D513" s="7"/>
     </row>
-    <row r="514" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D514" s="7"/>
     </row>
-    <row r="515" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D515" s="7"/>
     </row>
-    <row r="516" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D516" s="7"/>
     </row>
-    <row r="517" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D517" s="7"/>
     </row>
-    <row r="518" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D518" s="7"/>
     </row>
-    <row r="519" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D519" s="7"/>
     </row>
-    <row r="520" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D520" s="7"/>
     </row>
-    <row r="521" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D521" s="7"/>
     </row>
-    <row r="522" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D522" s="7"/>
     </row>
-    <row r="523" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D523" s="7"/>
     </row>
-    <row r="524" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D524" s="7"/>
     </row>
-    <row r="525" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D525" s="7"/>
     </row>
-    <row r="526" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D526" s="7"/>
     </row>
-    <row r="527" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D527" s="7"/>
     </row>
-    <row r="528" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D528" s="7"/>
     </row>
-    <row r="529" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D529" s="7"/>
     </row>
-    <row r="530" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D530" s="7"/>
     </row>
-    <row r="531" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D531" s="7"/>
     </row>
-    <row r="532" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D532" s="7"/>
     </row>
-    <row r="533" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D533" s="7"/>
     </row>
-    <row r="534" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D534" s="7"/>
     </row>
-    <row r="535" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D535" s="7"/>
     </row>
-    <row r="536" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D536" s="7"/>
     </row>
-    <row r="537" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D537" s="7"/>
     </row>
-    <row r="538" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D538" s="7"/>
     </row>
-    <row r="539" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D539" s="7"/>
     </row>
-    <row r="540" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D540" s="7"/>
     </row>
-    <row r="541" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D541" s="7"/>
     </row>
-    <row r="542" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D542" s="7"/>
     </row>
-    <row r="543" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D543" s="7"/>
     </row>
-    <row r="544" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D544" s="7"/>
     </row>
-    <row r="554" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D554" s="13"/>
     </row>
-    <row r="558" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D558" s="13"/>
     </row>
-    <row r="559" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D559" s="13"/>
     </row>
-    <row r="561" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D561" s="7"/>
     </row>
-    <row r="562" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D562" s="7"/>
     </row>
-    <row r="563" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D563" s="7"/>
     </row>
-    <row r="564" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D564" s="7"/>
     </row>
-    <row r="565" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D565" s="7"/>
     </row>
-    <row r="566" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D566" s="7"/>
     </row>
-    <row r="567" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D567" s="7"/>
     </row>
-    <row r="568" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D568" s="7"/>
     </row>
-    <row r="569" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D569" s="7"/>
     </row>
-    <row r="570" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D570" s="7"/>
     </row>
-    <row r="571" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D571" s="7"/>
     </row>
-    <row r="572" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D572" s="7"/>
     </row>
-    <row r="573" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D573" s="7"/>
     </row>
-    <row r="574" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D574" s="7"/>
     </row>
-    <row r="575" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D575" s="7"/>
     </row>
-    <row r="576" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D576" s="7"/>
     </row>
-    <row r="577" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D577" s="7"/>
     </row>
-    <row r="578" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D578" s="7"/>
     </row>
-    <row r="579" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D579" s="7"/>
     </row>
-    <row r="580" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D580" s="7"/>
     </row>
-    <row r="581" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D581" s="7"/>
     </row>
-    <row r="582" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D582" s="7"/>
     </row>
-    <row r="583" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D583" s="7"/>
     </row>
-    <row r="584" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D584" s="7"/>
     </row>
-    <row r="585" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D585" s="7"/>
     </row>
-    <row r="586" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D586" s="7"/>
     </row>
-    <row r="587" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D587" s="7"/>
     </row>
-    <row r="588" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D588" s="7"/>
     </row>
-    <row r="589" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D589" s="7"/>
     </row>
-    <row r="590" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D590" s="7"/>
     </row>
-    <row r="591" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D591" s="7"/>
     </row>
-    <row r="592" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D592" s="7"/>
     </row>
-    <row r="593" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D593" s="7"/>
     </row>
-    <row r="594" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D594" s="7"/>
     </row>
-    <row r="595" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D595" s="7"/>
     </row>
-    <row r="596" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D596" s="7"/>
     </row>
-    <row r="597" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D597" s="7"/>
     </row>
-    <row r="598" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D598" s="7"/>
     </row>
-    <row r="599" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D599" s="7"/>
     </row>
-    <row r="600" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D600" s="7"/>
     </row>
-    <row r="601" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D601" s="7"/>
     </row>
-    <row r="602" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D602" s="7"/>
     </row>
-    <row r="603" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D603" s="7"/>
     </row>
-    <row r="604" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D604" s="7"/>
     </row>
-    <row r="605" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D605" s="7"/>
     </row>
-    <row r="606" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D606" s="7"/>
     </row>
-    <row r="607" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D607" s="7"/>
     </row>
-    <row r="608" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D608" s="7"/>
     </row>
-    <row r="609" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D609" s="7"/>
     </row>
-    <row r="610" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D610" s="7"/>
     </row>
-    <row r="611" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D611" s="7"/>
     </row>
-    <row r="612" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D612" s="7"/>
     </row>
-    <row r="613" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D613" s="7"/>
     </row>
-    <row r="614" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D614" s="7"/>
     </row>
-    <row r="615" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D615" s="7"/>
     </row>
-    <row r="616" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D616" s="7"/>
     </row>
-    <row r="617" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D617" s="7"/>
     </row>
-    <row r="618" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D618" s="7"/>
     </row>
-    <row r="619" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D619" s="7"/>
     </row>
-    <row r="620" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D620" s="7"/>
     </row>
-    <row r="621" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D621" s="7"/>
     </row>
-    <row r="622" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D622" s="7"/>
     </row>
-    <row r="623" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D623" s="7"/>
     </row>
-    <row r="624" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D624" s="7"/>
     </row>
-    <row r="625" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D625" s="7"/>
     </row>
-    <row r="626" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D626" s="7"/>
     </row>
-    <row r="627" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D627" s="7"/>
     </row>
-    <row r="628" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D628" s="7"/>
     </row>
-    <row r="629" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D629" s="7"/>
     </row>
-    <row r="630" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D630" s="7"/>
     </row>
-    <row r="631" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D631" s="7"/>
     </row>
-    <row r="632" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D632" s="7"/>
     </row>
-    <row r="633" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D633" s="7"/>
     </row>
-    <row r="634" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D634" s="7"/>
     </row>
-    <row r="635" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D635" s="7"/>
     </row>
-    <row r="636" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D636" s="7"/>
     </row>
-    <row r="637" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D637" s="7"/>
     </row>
-    <row r="638" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D638" s="7"/>
     </row>
-    <row r="639" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D639" s="7"/>
     </row>
-    <row r="640" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D640" s="7"/>
     </row>
-    <row r="641" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D641" s="7"/>
     </row>
-    <row r="642" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D642" s="7"/>
     </row>
-    <row r="643" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D643" s="7"/>
     </row>
-    <row r="644" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D644" s="7"/>
     </row>
-    <row r="645" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D645" s="7"/>
     </row>
-    <row r="646" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D646" s="7"/>
     </row>
-    <row r="647" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D647" s="7"/>
     </row>
-    <row r="648" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D648" s="7"/>
     </row>
-    <row r="649" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D649" s="7"/>
     </row>
-    <row r="650" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D650" s="7"/>
     </row>
-    <row r="651" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D651" s="7"/>
     </row>
-    <row r="652" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D652" s="7"/>
     </row>
-    <row r="653" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D653" s="7"/>
     </row>
-    <row r="654" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D654" s="7"/>
     </row>
-    <row r="655" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D655" s="7"/>
     </row>
-    <row r="656" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D656" s="7"/>
     </row>
-    <row r="657" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D657" s="7"/>
     </row>
-    <row r="658" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D658" s="7"/>
     </row>
-    <row r="659" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D659" s="7"/>
     </row>
-    <row r="660" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D660" s="7"/>
     </row>
-    <row r="661" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D661" s="7"/>
     </row>
-    <row r="662" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="662" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D662" s="7"/>
     </row>
-    <row r="663" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D663" s="7"/>
     </row>
-    <row r="664" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="664" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D664" s="7"/>
     </row>
-    <row r="665" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D665" s="7"/>
     </row>
-    <row r="666" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D666" s="7"/>
     </row>
-    <row r="667" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D667" s="7"/>
     </row>
-    <row r="668" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D668" s="7"/>
     </row>
-    <row r="669" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D669" s="7"/>
     </row>
-    <row r="670" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D670" s="7"/>
     </row>
-    <row r="671" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D671" s="7"/>
     </row>
-    <row r="672" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D672" s="7"/>
     </row>
-    <row r="673" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D673" s="7"/>
     </row>
-    <row r="674" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D674" s="7"/>
     </row>
-    <row r="675" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D675" s="7"/>
     </row>
-    <row r="676" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="676" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D676" s="7"/>
     </row>
-    <row r="677" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="677" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D677" s="7"/>
     </row>
-    <row r="678" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="678" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D678" s="7"/>
     </row>
-    <row r="679" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="679" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D679" s="7"/>
     </row>
-    <row r="680" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="680" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D680" s="7"/>
     </row>
-    <row r="681" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="681" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D681" s="7"/>
     </row>
-    <row r="682" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="682" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D682" s="7"/>
     </row>
-    <row r="683" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="683" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D683" s="7"/>
     </row>
-    <row r="684" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="684" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D684" s="7"/>
     </row>
-    <row r="685" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="685" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D685" s="7"/>
     </row>
-    <row r="686" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="686" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D686" s="7"/>
     </row>
-    <row r="687" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="687" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D687" s="7"/>
     </row>
-    <row r="688" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="688" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D688" s="7"/>
     </row>
-    <row r="695" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="695" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D695" s="13"/>
     </row>
-    <row r="696" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="696" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D696" s="13"/>
     </row>
-    <row r="699" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="699" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D699" s="13"/>
     </row>
-    <row r="700" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="700" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D700" s="13"/>
     </row>
-    <row r="705" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="705" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D705" s="7"/>
     </row>
-    <row r="706" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="706" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D706" s="7"/>
     </row>
-    <row r="707" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="707" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D707" s="7"/>
     </row>
-    <row r="708" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="708" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D708" s="7"/>
     </row>
-    <row r="709" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="709" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D709" s="7"/>
     </row>
-    <row r="710" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="710" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D710" s="7"/>
     </row>
-    <row r="711" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="711" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D711" s="7"/>
     </row>
-    <row r="712" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="712" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D712" s="7"/>
     </row>
-    <row r="713" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="713" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D713" s="7"/>
     </row>
-    <row r="714" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="714" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D714" s="7"/>
     </row>
-    <row r="715" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="715" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D715" s="7"/>
     </row>
-    <row r="716" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="716" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D716" s="7"/>
     </row>
-    <row r="717" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="717" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D717" s="7"/>
     </row>
-    <row r="718" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="718" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D718" s="7"/>
     </row>
-    <row r="719" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="719" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D719" s="7"/>
     </row>
-    <row r="720" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="720" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D720" s="7"/>
     </row>
-    <row r="721" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="721" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D721" s="7"/>
     </row>
-    <row r="722" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="722" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D722" s="7"/>
     </row>
-    <row r="723" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="723" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D723" s="7"/>
     </row>
-    <row r="724" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="724" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D724" s="7"/>
     </row>
-    <row r="725" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="725" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D725" s="7"/>
     </row>
-    <row r="726" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="726" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D726" s="7"/>
     </row>
-    <row r="727" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="727" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D727" s="7"/>
     </row>
-    <row r="728" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="728" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D728" s="7"/>
     </row>
-    <row r="729" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="729" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D729" s="7"/>
     </row>
-    <row r="730" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="730" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D730" s="7"/>
     </row>
-    <row r="731" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="731" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D731" s="7"/>
     </row>
-    <row r="732" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="732" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D732" s="7"/>
     </row>
-    <row r="733" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="733" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D733" s="7"/>
     </row>
-    <row r="734" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="734" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D734" s="7"/>
     </row>
-    <row r="735" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="735" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D735" s="7"/>
     </row>
-    <row r="736" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="736" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D736" s="7"/>
     </row>
-    <row r="737" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="737" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D737" s="7"/>
     </row>
-    <row r="738" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="738" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D738" s="7"/>
     </row>
-    <row r="739" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="739" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D739" s="7"/>
     </row>
-    <row r="740" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="740" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D740" s="7"/>
     </row>
-    <row r="741" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="741" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D741" s="7"/>
     </row>
-    <row r="742" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="742" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D742" s="7"/>
     </row>
-    <row r="743" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="743" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D743" s="7"/>
     </row>
-    <row r="744" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="744" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D744" s="7"/>
     </row>
-    <row r="745" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="745" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D745" s="7"/>
     </row>
-    <row r="746" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="746" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D746" s="7"/>
     </row>
-    <row r="747" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="747" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D747" s="7"/>
     </row>
-    <row r="748" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="748" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D748" s="7"/>
     </row>
-    <row r="749" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="749" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D749" s="7"/>
     </row>
-    <row r="750" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="750" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D750" s="7"/>
     </row>
-    <row r="751" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="751" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D751" s="7"/>
     </row>
-    <row r="752" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="752" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D752" s="7"/>
     </row>
-    <row r="753" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="753" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D753" s="7"/>
     </row>
-    <row r="754" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="754" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D754" s="7"/>
     </row>
-    <row r="755" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="755" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D755" s="7"/>
     </row>
-    <row r="756" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="756" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D756" s="7"/>
     </row>
-    <row r="757" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="757" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D757" s="7"/>
     </row>
-    <row r="758" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="758" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D758" s="7"/>
     </row>
-    <row r="759" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="759" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D759" s="7"/>
     </row>
-    <row r="760" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="760" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D760" s="7"/>
     </row>
-    <row r="761" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="761" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D761" s="7"/>
     </row>
-    <row r="762" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="762" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D762" s="7"/>
     </row>
-    <row r="763" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="763" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D763" s="7"/>
     </row>
-    <row r="764" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="764" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D764" s="7"/>
     </row>
-    <row r="765" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="765" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D765" s="7"/>
     </row>
-    <row r="766" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="766" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D766" s="7"/>
     </row>
-    <row r="767" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="767" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D767" s="7"/>
     </row>
-    <row r="768" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="768" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D768" s="7"/>
     </row>
-    <row r="769" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="769" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D769" s="7"/>
     </row>
-    <row r="770" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="770" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D770" s="7"/>
     </row>
-    <row r="771" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="771" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D771" s="7"/>
     </row>
-    <row r="772" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="772" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D772" s="7"/>
     </row>
-    <row r="773" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="773" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D773" s="7"/>
     </row>
-    <row r="774" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="774" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D774" s="7"/>
     </row>
-    <row r="775" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="775" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D775" s="7"/>
     </row>
-    <row r="776" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="776" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D776" s="7"/>
     </row>
-    <row r="777" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="777" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D777" s="7"/>
     </row>
-    <row r="778" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="778" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D778" s="7"/>
     </row>
-    <row r="779" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="779" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D779" s="7"/>
     </row>
-    <row r="780" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="780" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D780" s="7"/>
     </row>
-    <row r="781" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="781" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D781" s="7"/>
     </row>
-    <row r="782" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="782" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D782" s="7"/>
     </row>
-    <row r="783" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="783" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D783" s="7"/>
     </row>
-    <row r="784" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="784" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D784" s="7"/>
     </row>
-    <row r="785" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="785" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D785" s="7"/>
     </row>
-    <row r="786" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="786" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D786" s="7"/>
     </row>
-    <row r="787" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="787" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D787" s="7"/>
     </row>
-    <row r="788" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="788" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D788" s="7"/>
     </row>
-    <row r="789" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="789" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D789" s="7"/>
     </row>
-    <row r="790" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="790" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D790" s="7"/>
     </row>
-    <row r="791" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="791" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D791" s="7"/>
     </row>
-    <row r="792" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="792" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D792" s="7"/>
     </row>
-    <row r="793" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="793" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D793" s="7"/>
     </row>
-    <row r="794" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="794" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D794" s="7"/>
     </row>
-    <row r="795" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="795" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D795" s="7"/>
     </row>
-    <row r="796" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="796" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D796" s="7"/>
     </row>
-    <row r="797" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="797" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D797" s="7"/>
     </row>
-    <row r="798" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="798" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D798" s="7"/>
     </row>
-    <row r="799" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="799" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D799" s="7"/>
     </row>
-    <row r="800" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="800" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D800" s="7"/>
     </row>
-    <row r="801" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="801" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D801" s="7"/>
     </row>
-    <row r="802" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="802" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D802" s="7"/>
     </row>
-    <row r="803" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="803" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D803" s="7"/>
     </row>
-    <row r="804" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="804" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D804" s="7"/>
     </row>
-    <row r="805" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="805" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D805" s="7"/>
     </row>
-    <row r="806" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="806" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D806" s="7"/>
     </row>
-    <row r="807" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="807" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D807" s="7"/>
     </row>
-    <row r="808" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="808" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D808" s="7"/>
     </row>
-    <row r="809" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="809" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D809" s="7"/>
     </row>
-    <row r="810" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="810" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D810" s="7"/>
     </row>
-    <row r="811" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="811" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D811" s="7"/>
     </row>
-    <row r="812" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="812" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D812" s="7"/>
     </row>
-    <row r="813" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="813" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D813" s="7"/>
     </row>
-    <row r="814" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="814" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D814" s="7"/>
     </row>
-    <row r="815" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="815" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D815" s="7"/>
     </row>
-    <row r="816" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="816" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D816" s="7"/>
     </row>
-    <row r="817" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="817" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D817" s="7"/>
     </row>
-    <row r="818" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="818" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D818" s="7"/>
     </row>
-    <row r="819" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="819" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D819" s="7"/>
     </row>
-    <row r="820" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="820" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D820" s="7"/>
     </row>
-    <row r="821" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="821" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D821" s="7"/>
     </row>
-    <row r="822" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="822" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D822" s="7"/>
     </row>
-    <row r="823" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="823" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D823" s="7"/>
     </row>
-    <row r="824" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="824" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D824" s="7"/>
     </row>
-    <row r="825" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="825" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D825" s="7"/>
     </row>
-    <row r="826" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="826" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D826" s="7"/>
     </row>
-    <row r="827" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="827" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D827" s="7"/>
     </row>
-    <row r="828" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="828" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D828" s="7"/>
     </row>
-    <row r="829" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="829" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D829" s="7"/>
     </row>
-    <row r="830" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="830" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D830" s="7"/>
     </row>
-    <row r="831" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="831" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D831" s="7"/>
     </row>
-    <row r="832" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="832" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D832" s="7"/>
     </row>
-    <row r="833" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="833" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D833" s="7"/>
     </row>
-    <row r="834" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="834" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D834" s="7"/>
     </row>
-    <row r="835" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="835" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D835" s="7"/>
     </row>
-    <row r="836" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="836" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D836" s="7"/>
     </row>
-    <row r="837" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="837" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D837" s="7"/>
     </row>
-    <row r="838" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="838" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D838" s="7"/>
     </row>
-    <row r="839" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="839" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D839" s="7"/>
     </row>
-    <row r="840" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="840" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D840" s="7"/>
     </row>
-    <row r="841" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="841" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D841" s="7"/>
     </row>
-    <row r="842" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="842" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D842" s="7"/>
     </row>
-    <row r="843" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="843" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D843" s="7"/>
     </row>
-    <row r="844" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="844" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D844" s="7"/>
     </row>
-    <row r="845" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="845" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D845" s="7"/>
     </row>
-    <row r="846" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="846" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D846" s="7"/>
     </row>
-    <row r="847" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="847" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D847" s="7"/>
     </row>
-    <row r="848" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="848" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D848" s="7"/>
     </row>
-    <row r="849" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="849" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D849" s="7"/>
     </row>
-    <row r="850" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="850" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D850" s="7"/>
     </row>
-    <row r="851" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="851" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D851" s="7"/>
     </row>
-    <row r="852" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="852" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D852" s="7"/>
     </row>
-    <row r="853" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="853" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D853" s="7"/>
     </row>
-    <row r="854" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="854" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D854" s="7"/>
     </row>
-    <row r="855" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="855" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D855" s="7"/>
     </row>
-    <row r="856" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="856" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D856" s="7"/>
     </row>
-    <row r="857" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="857" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D857" s="7"/>
     </row>
-    <row r="858" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="858" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D858" s="7"/>
     </row>
-    <row r="859" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="859" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D859" s="7"/>
     </row>
-    <row r="860" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="860" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D860" s="7"/>
     </row>
-    <row r="861" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="861" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D861" s="7"/>
     </row>
-    <row r="862" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="862" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D862" s="7"/>
     </row>
-    <row r="863" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="863" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D863" s="7"/>
     </row>
-    <row r="864" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="864" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D864" s="7"/>
     </row>
-    <row r="870" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="870" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D870" s="13"/>
     </row>
-    <row r="871" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="871" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D871" s="13"/>
     </row>
-    <row r="874" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="874" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D874" s="13"/>
     </row>
-    <row r="875" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="875" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D875" s="13"/>
     </row>
-    <row r="877" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="877" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D877" s="13"/>
     </row>
-    <row r="878" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="878" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D878" s="13"/>
     </row>
-    <row r="881" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="881" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D881" s="13"/>
     </row>
-    <row r="882" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="882" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D882" s="13"/>
     </row>
-    <row r="885" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="885" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D885" s="13"/>
     </row>
-    <row r="886" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="886" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D886" s="13"/>
     </row>
-    <row r="888" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="888" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D888" s="13"/>
     </row>
-    <row r="889" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="889" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D889" s="13"/>
     </row>
-    <row r="891" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="891" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D891" s="13"/>
     </row>
-    <row r="892" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="892" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D892" s="13"/>
     </row>
-    <row r="894" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="894" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D894" s="13"/>
     </row>
-    <row r="895" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="895" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D895" s="13"/>
     </row>
-    <row r="897" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="897" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D897" s="13"/>
     </row>
-    <row r="898" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="898" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D898" s="13"/>
     </row>
-    <row r="900" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="900" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D900" s="13"/>
     </row>
-    <row r="901" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="901" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D901" s="13"/>
     </row>
-    <row r="904" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="904" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D904" s="13"/>
     </row>
-    <row r="905" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="905" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D905" s="13"/>
     </row>
-    <row r="907" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="907" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D907" s="13"/>
     </row>
-    <row r="908" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="908" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D908" s="13"/>
     </row>
-    <row r="910" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="910" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D910" s="13"/>
     </row>
-    <row r="911" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="911" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D911" s="13"/>
     </row>
-    <row r="912" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="912" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D912" s="14"/>
     </row>
-    <row r="913" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="913" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D913" s="13"/>
     </row>
-    <row r="914" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="914" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D914" s="13"/>
     </row>
-    <row r="918" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="918" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D918" s="14"/>
     </row>
-    <row r="919" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="919" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D919" s="13"/>
     </row>
-    <row r="943" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="943" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D943" s="14"/>
     </row>
-    <row r="944" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="944" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D944" s="13"/>
     </row>
-    <row r="948" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="948" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D948" s="14"/>
     </row>
-    <row r="949" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="949" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D949" s="13"/>
     </row>
-    <row r="950" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="950" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D950" s="13"/>
     </row>
-    <row r="951" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="951" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D951" s="13"/>
     </row>
-    <row r="952" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="952" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D952" s="13"/>
     </row>
-    <row r="953" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="953" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D953" s="13"/>
     </row>
-    <row r="954" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="954" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D954" s="13"/>
     </row>
-    <row r="955" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="955" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D955" s="13"/>
     </row>
-    <row r="956" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="956" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D956" s="13"/>
     </row>
-    <row r="957" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="957" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D957" s="13"/>
     </row>
-    <row r="958" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="958" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D958" s="13"/>
     </row>
-    <row r="959" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="959" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D959" s="13"/>
     </row>
-    <row r="960" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="960" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D960" s="13"/>
     </row>
-    <row r="961" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="961" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D961" s="13"/>
     </row>
-    <row r="962" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="962" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D962" s="13"/>
     </row>
-    <row r="963" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="963" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D963" s="13"/>
     </row>
-    <row r="964" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="964" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D964" s="13"/>
     </row>
-    <row r="965" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="965" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D965" s="13"/>
     </row>
-    <row r="977" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="977" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D977" s="7"/>
     </row>
-    <row r="978" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="978" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D978" s="7"/>
     </row>
-    <row r="979" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="979" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D979" s="7"/>
     </row>
-    <row r="980" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="980" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D980" s="7"/>
     </row>
-    <row r="981" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="981" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D981" s="7"/>
     </row>
-    <row r="982" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="982" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D982" s="7"/>
     </row>
-    <row r="983" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="983" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D983" s="7"/>
     </row>
-    <row r="984" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="984" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D984" s="7"/>
     </row>
-    <row r="985" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="985" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D985" s="7"/>
     </row>
-    <row r="986" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="986" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D986" s="7"/>
     </row>
-    <row r="987" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="987" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D987" s="7"/>
     </row>
-    <row r="988" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="988" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D988" s="7"/>
     </row>
-    <row r="989" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="989" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D989" s="7"/>
     </row>
-    <row r="990" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="990" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D990" s="7"/>
     </row>
-    <row r="991" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="991" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D991" s="7"/>
     </row>
-    <row r="992" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="992" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D992" s="7"/>
     </row>
-    <row r="993" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="993" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D993" s="7"/>
     </row>
-    <row r="994" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="994" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D994" s="7"/>
     </row>
-    <row r="995" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="995" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D995" s="7"/>
     </row>
-    <row r="996" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="996" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D996" s="7"/>
     </row>
-    <row r="997" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="997" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D997" s="7"/>
     </row>
-    <row r="998" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="998" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D998" s="7"/>
     </row>
-    <row r="999" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="999" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D999" s="7"/>
     </row>
-    <row r="1000" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1000" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1000" s="7"/>
     </row>
-    <row r="1001" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1001" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1001" s="7"/>
     </row>
-    <row r="1002" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1002" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1002" s="7"/>
     </row>
-    <row r="1003" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1003" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1003" s="7"/>
     </row>
-    <row r="1004" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1004" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1004" s="7"/>
     </row>
-    <row r="1005" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1005" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1005" s="7"/>
     </row>
-    <row r="1006" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1006" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1006" s="7"/>
     </row>
-    <row r="1007" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1007" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1007" s="7"/>
     </row>
-    <row r="1008" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1008" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1008" s="7"/>
     </row>
-    <row r="1009" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1009" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1009" s="7"/>
     </row>
-    <row r="1010" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1010" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1010" s="7"/>
     </row>
-    <row r="1011" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1011" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1011" s="7"/>
     </row>
-    <row r="1012" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1012" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1012" s="7"/>
     </row>
-    <row r="1013" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1013" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1013" s="7"/>
     </row>
-    <row r="1014" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1014" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1014" s="7"/>
     </row>
-    <row r="1015" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1015" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1015" s="7"/>
     </row>
-    <row r="1016" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1016" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1016" s="7"/>
     </row>
-    <row r="1017" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1017" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1017" s="7"/>
     </row>
-    <row r="1018" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1018" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1018" s="7"/>
     </row>
-    <row r="1019" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1019" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1019" s="7"/>
     </row>
-    <row r="1020" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1020" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1020" s="7"/>
     </row>
-    <row r="1021" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1021" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1021" s="7"/>
     </row>
-    <row r="1022" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1022" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1022" s="7"/>
     </row>
-    <row r="1023" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1023" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1023" s="7"/>
     </row>
-    <row r="1024" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1024" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1024" s="7"/>
     </row>
-    <row r="1025" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1025" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1025" s="7"/>
     </row>
-    <row r="1026" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1026" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1026" s="7"/>
     </row>
-    <row r="1027" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1027" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1027" s="7"/>
     </row>
-    <row r="1028" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1028" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1028" s="7"/>
     </row>
-    <row r="1029" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1029" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1029" s="7"/>
     </row>
-    <row r="1030" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1030" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1030" s="7"/>
     </row>
-    <row r="1031" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1031" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1031" s="7"/>
     </row>
-    <row r="1032" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1032" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1032" s="7"/>
     </row>
-    <row r="1033" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1033" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1033" s="7"/>
     </row>
-    <row r="1034" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1034" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1034" s="7"/>
     </row>
-    <row r="1035" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1035" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1035" s="7"/>
     </row>
-    <row r="1036" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1036" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1036" s="7"/>
     </row>
-    <row r="1037" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1037" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1037" s="7"/>
     </row>
-    <row r="1038" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1038" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1038" s="7"/>
     </row>
-    <row r="1039" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1039" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1039" s="7"/>
     </row>
-    <row r="1040" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1040" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1040" s="7"/>
     </row>
-    <row r="1041" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1041" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1041" s="7"/>
     </row>
-    <row r="1042" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1042" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1042" s="7"/>
     </row>
-    <row r="1043" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1043" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1043" s="7"/>
     </row>
-    <row r="1044" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1044" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1044" s="7"/>
     </row>
-    <row r="1045" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1045" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1045" s="7"/>
     </row>
-    <row r="1046" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1046" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1046" s="7"/>
     </row>
-    <row r="1047" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1047" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1047" s="7"/>
     </row>
-    <row r="1048" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1048" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1048" s="7"/>
     </row>
-    <row r="1049" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1049" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1049" s="7"/>
     </row>
-    <row r="1050" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1050" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1050" s="7"/>
     </row>
-    <row r="1051" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1051" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1051" s="7"/>
     </row>
-    <row r="1052" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1052" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1052" s="7"/>
     </row>
-    <row r="1053" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1053" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1053" s="7"/>
     </row>
-    <row r="1054" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1054" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1054" s="7"/>
     </row>
-    <row r="1055" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1055" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1055" s="7"/>
     </row>
-    <row r="1056" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1056" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1056" s="7"/>
     </row>
-    <row r="1057" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1057" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1057" s="7"/>
     </row>
-    <row r="1058" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1058" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1058" s="7"/>
     </row>
-    <row r="1059" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1059" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1059" s="7"/>
     </row>
-    <row r="1060" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1060" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1060" s="7"/>
     </row>
-    <row r="1061" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1061" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1061" s="7"/>
     </row>
-    <row r="1062" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1062" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1062" s="7"/>
     </row>
-    <row r="1063" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1063" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1063" s="7"/>
     </row>
-    <row r="1064" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1064" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1064" s="7"/>
     </row>
-    <row r="1065" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1065" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1065" s="7"/>
     </row>
-    <row r="1066" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1066" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1066" s="7"/>
     </row>
-    <row r="1067" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1067" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1067" s="7"/>
     </row>
-    <row r="1068" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1068" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1068" s="7"/>
     </row>
-    <row r="1069" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1069" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1069" s="7"/>
     </row>
-    <row r="1070" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1070" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1070" s="7"/>
     </row>
-    <row r="1071" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1071" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1071" s="7"/>
     </row>
-    <row r="1072" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1072" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1072" s="7"/>
     </row>
-    <row r="1073" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1073" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1073" s="7"/>
     </row>
-    <row r="1074" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1074" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1074" s="7"/>
     </row>
-    <row r="1075" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1075" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1075" s="7"/>
     </row>
-    <row r="1076" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1076" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1076" s="7"/>
     </row>
-    <row r="1077" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1077" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1077" s="7"/>
     </row>
-    <row r="1078" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1078" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1078" s="7"/>
     </row>
-    <row r="1079" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1079" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1079" s="7"/>
     </row>
-    <row r="1080" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1080" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1080" s="7"/>
     </row>
-    <row r="1081" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1081" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1081" s="7"/>
     </row>
-    <row r="1082" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1082" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1082" s="7"/>
     </row>
-    <row r="1083" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1083" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1083" s="7"/>
     </row>
-    <row r="1084" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1084" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1084" s="7"/>
     </row>
-    <row r="1085" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1085" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1085" s="7"/>
     </row>
-    <row r="1086" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1086" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1086" s="7"/>
     </row>
-    <row r="1087" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1087" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1087" s="7"/>
     </row>
-    <row r="1088" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1088" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1088" s="7"/>
     </row>
-    <row r="1089" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1089" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1089" s="7"/>
     </row>
-    <row r="1090" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1090" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1090" s="7"/>
     </row>
-    <row r="1091" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1091" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1091" s="7"/>
     </row>
-    <row r="1092" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1092" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1092" s="7"/>
     </row>
-    <row r="1093" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1093" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1093" s="7"/>
     </row>
-    <row r="1094" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1094" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1094" s="7"/>
     </row>
-    <row r="1095" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1095" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1095" s="7"/>
     </row>
-    <row r="1096" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1096" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1096" s="7"/>
     </row>
-    <row r="1097" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1097" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1097" s="7"/>
     </row>
-    <row r="1098" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1098" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1098" s="7"/>
     </row>
-    <row r="1099" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1099" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1099" s="7"/>
     </row>
-    <row r="1100" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1100" s="7"/>
     </row>
-    <row r="1101" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1101" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1101" s="7"/>
     </row>
-    <row r="1102" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1102" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1102" s="7"/>
     </row>
-    <row r="1103" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1103" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1103" s="7"/>
     </row>
-    <row r="1104" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1104" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1104" s="7"/>
     </row>
-    <row r="1105" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1105" s="7"/>
     </row>
-    <row r="1106" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1106" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1106" s="7"/>
     </row>
-    <row r="1107" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1107" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1107" s="7"/>
     </row>
-    <row r="1108" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1108" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1108" s="7"/>
     </row>
-    <row r="1109" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1109" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1109" s="7"/>
     </row>
-    <row r="1110" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1110" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1110" s="7"/>
     </row>
-    <row r="1111" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1111" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1111" s="7"/>
     </row>
-    <row r="1112" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1112" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1112" s="7"/>
     </row>
-    <row r="1113" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1113" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1113" s="7"/>
     </row>
-    <row r="1114" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1114" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1114" s="7"/>
     </row>
-    <row r="1115" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1115" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1115" s="7"/>
     </row>
-    <row r="1116" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1116" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1116" s="7"/>
     </row>
-    <row r="1117" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1117" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1117" s="7"/>
     </row>
-    <row r="1118" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1118" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1118" s="7"/>
     </row>
-    <row r="1119" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1119" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1119" s="7"/>
     </row>
-    <row r="1120" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1120" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1120" s="7"/>
     </row>
-    <row r="1121" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1121" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1121" s="7"/>
     </row>
-    <row r="1122" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1122" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1122" s="7"/>
     </row>
-    <row r="1123" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1123" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1123" s="7"/>
     </row>
-    <row r="1124" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1124" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1124" s="7"/>
     </row>
-    <row r="1125" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1125" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1125" s="7"/>
     </row>
-    <row r="1126" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1126" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1126" s="7"/>
     </row>
-    <row r="1127" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1127" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1127" s="7"/>
     </row>
-    <row r="1128" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1128" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1128" s="7"/>
     </row>
-    <row r="1129" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1129" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1129" s="7"/>
     </row>
-    <row r="1130" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1130" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1130" s="7"/>
     </row>
-    <row r="1131" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1131" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1131" s="7"/>
     </row>
-    <row r="1132" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1132" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1132" s="7"/>
     </row>
-    <row r="1133" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1133" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1133" s="7"/>
     </row>
-    <row r="1134" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1134" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1134" s="7"/>
     </row>
-    <row r="1135" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1135" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1135" s="7"/>
     </row>
-    <row r="1136" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1136" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1136" s="7"/>
     </row>
-    <row r="1137" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1137" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1137" s="7"/>
     </row>
-    <row r="1138" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1138" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1138" s="7"/>
     </row>
-    <row r="1139" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1139" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1139" s="7"/>
     </row>
-    <row r="1140" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1140" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1140" s="7"/>
     </row>
-    <row r="1141" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1141" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1141" s="7"/>
     </row>
-    <row r="1142" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1142" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1142" s="7"/>
     </row>
-    <row r="1143" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1143" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1143" s="7"/>
     </row>
-    <row r="1144" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1144" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1144" s="7"/>
     </row>
-    <row r="1145" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1145" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1145" s="7"/>
     </row>
-    <row r="1146" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1146" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1146" s="7"/>
     </row>
-    <row r="1147" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1147" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1147" s="7"/>
     </row>
-    <row r="1148" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1148" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1148" s="7"/>
     </row>
-    <row r="1149" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1149" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1149" s="7"/>
     </row>
-    <row r="1150" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1150" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1150" s="7"/>
     </row>
-    <row r="1151" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1151" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1151" s="7"/>
     </row>
-    <row r="1152" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1152" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1152" s="7"/>
     </row>
-    <row r="1153" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1153" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1153" s="7"/>
     </row>
-    <row r="1154" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1154" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1154" s="7"/>
     </row>
-    <row r="1155" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1155" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1155" s="7"/>
     </row>
-    <row r="1156" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1156" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1156" s="7"/>
     </row>
-    <row r="1157" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1157" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1157" s="7"/>
     </row>
-    <row r="1158" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1158" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1158" s="7"/>
     </row>
-    <row r="1159" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1159" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1159" s="7"/>
     </row>
-    <row r="1160" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1160" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1160" s="7"/>
     </row>
-    <row r="1161" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1161" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1161" s="7"/>
     </row>
-    <row r="1162" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1162" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1162" s="7"/>
     </row>
-    <row r="1163" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1163" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1163" s="7"/>
     </row>
-    <row r="1164" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1164" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1164" s="7"/>
     </row>
-    <row r="1165" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1165" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1165" s="7"/>
     </row>
-    <row r="1166" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1166" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1166" s="7"/>
     </row>
-    <row r="1167" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1167" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1167" s="7"/>
     </row>
-    <row r="1168" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1168" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1168" s="7"/>
     </row>
-    <row r="1169" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1169" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1169" s="7"/>
     </row>
-    <row r="1170" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1170" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1170" s="7"/>
     </row>
-    <row r="1171" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1171" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1171" s="7"/>
     </row>
-    <row r="1172" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1172" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1172" s="7"/>
     </row>
-    <row r="1173" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1173" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1173" s="7"/>
     </row>
-    <row r="1174" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1174" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1174" s="7"/>
     </row>
-    <row r="1175" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1175" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1175" s="7"/>
     </row>
-    <row r="1176" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1176" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1176" s="7"/>
     </row>
-    <row r="1177" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1177" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1177" s="7"/>
     </row>
-    <row r="1178" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1178" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1178" s="7"/>
     </row>
-    <row r="1179" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1179" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1179" s="7"/>
     </row>
-    <row r="1180" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1180" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1180" s="7"/>
     </row>
-    <row r="1181" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1181" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1181" s="7"/>
     </row>
-    <row r="1182" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1182" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1182" s="7"/>
     </row>
-    <row r="1183" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1183" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1183" s="7"/>
     </row>
-    <row r="1184" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1184" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1184" s="7"/>
     </row>
-    <row r="1185" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1185" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1185" s="7"/>
     </row>
-    <row r="1186" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1186" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1186" s="7"/>
     </row>
-    <row r="1187" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1187" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1187" s="7"/>
     </row>
-    <row r="1188" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1188" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1188" s="7"/>
     </row>
-    <row r="1189" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1189" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1189" s="7"/>
     </row>
-    <row r="1190" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1190" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1190" s="7"/>
     </row>
-    <row r="1191" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1191" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1191" s="7"/>
     </row>
-    <row r="1192" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1192" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1192" s="7"/>
     </row>
-    <row r="1193" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1193" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1193" s="7"/>
     </row>
-    <row r="1194" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1194" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1194" s="7"/>
     </row>
-    <row r="1195" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1195" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1195" s="7"/>
     </row>
-    <row r="1196" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1196" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1196" s="7"/>
     </row>
-    <row r="1197" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1197" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1197" s="7"/>
     </row>
-    <row r="1198" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1198" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1198" s="7"/>
     </row>
-    <row r="1199" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1199" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1199" s="7"/>
     </row>
-    <row r="1200" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1200" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1200" s="7"/>
     </row>
-    <row r="1201" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1201" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1201" s="7"/>
     </row>
-    <row r="1202" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1202" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1202" s="7"/>
     </row>
-    <row r="1203" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1203" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1203" s="7"/>
     </row>
-    <row r="1204" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1204" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1204" s="7"/>
     </row>
-    <row r="1205" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1205" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1205" s="7"/>
     </row>
-    <row r="1206" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1206" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1206" s="7"/>
     </row>
-    <row r="1207" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1207" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1207" s="7"/>
     </row>
-    <row r="1208" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1208" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1208" s="7"/>
     </row>
-    <row r="1209" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1209" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1209" s="7"/>
     </row>
-    <row r="1210" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1210" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1210" s="7"/>
     </row>
-    <row r="1211" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1211" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1211" s="7"/>
     </row>
-    <row r="1212" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1212" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1212" s="7"/>
     </row>
-    <row r="1213" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1213" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1213" s="7"/>
     </row>
-    <row r="1214" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1214" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1214" s="7"/>
     </row>
-    <row r="1215" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1215" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1215" s="7"/>
     </row>
-    <row r="1216" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1216" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1216" s="7"/>
     </row>
-    <row r="1217" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1217" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1217" s="7"/>
     </row>
-    <row r="1218" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1218" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1218" s="7"/>
     </row>
-    <row r="1219" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1219" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1219" s="7"/>
     </row>
-    <row r="1220" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1220" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1220" s="7"/>
     </row>
-    <row r="1221" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1221" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1221" s="7"/>
     </row>
-    <row r="1222" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1222" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1222" s="7"/>
     </row>
-    <row r="1223" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1223" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1223" s="7"/>
     </row>
-    <row r="1224" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1224" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1224" s="7"/>
     </row>
-    <row r="1225" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1225" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1225" s="7"/>
     </row>
-    <row r="1226" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1226" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1226" s="7"/>
     </row>
-    <row r="1227" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1227" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1227" s="7"/>
     </row>
-    <row r="1228" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1228" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1228" s="7"/>
     </row>
-    <row r="1229" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1229" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1229" s="7"/>
     </row>
-    <row r="1230" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1230" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1230" s="7"/>
     </row>
-    <row r="1231" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1231" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1231" s="7"/>
     </row>
-    <row r="1232" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1232" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1232" s="7"/>
     </row>
-    <row r="1233" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1233" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1233" s="7"/>
     </row>
-    <row r="1234" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1234" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1234" s="7"/>
     </row>
-    <row r="1235" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1235" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1235" s="7"/>
     </row>
-    <row r="1236" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1236" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1236" s="7"/>
     </row>
-    <row r="1237" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1237" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1237" s="7"/>
     </row>
-    <row r="1238" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1238" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1238" s="7"/>
     </row>
-    <row r="1239" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1239" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1239" s="7"/>
     </row>
-    <row r="1240" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1240" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1240" s="7"/>
     </row>
-    <row r="1241" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1241" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1241" s="7"/>
     </row>
-    <row r="1242" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1242" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1242" s="7"/>
     </row>
-    <row r="1243" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1243" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1243" s="7"/>
     </row>
-    <row r="1244" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1244" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1244" s="7"/>
     </row>
-    <row r="1245" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1245" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1245" s="7"/>
     </row>
-    <row r="1246" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1246" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1246" s="7"/>
     </row>
-    <row r="1247" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1247" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1247" s="7"/>
     </row>
-    <row r="1248" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1248" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1248" s="7"/>
     </row>
-    <row r="1249" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1249" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1249" s="7"/>
     </row>
-    <row r="1250" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1250" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1250" s="7"/>
     </row>
-    <row r="1251" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1251" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1251" s="7"/>
     </row>
-    <row r="1252" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1252" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1252" s="7"/>
     </row>
-    <row r="1253" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1253" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1253" s="7"/>
     </row>
-    <row r="1254" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1254" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1254" s="7"/>
     </row>
-    <row r="1255" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1255" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1255" s="7"/>
     </row>
-    <row r="1256" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1256" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1256" s="7"/>
     </row>
-    <row r="1257" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1257" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1257" s="7"/>
     </row>
-    <row r="1258" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1258" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1258" s="7"/>
     </row>
-    <row r="1259" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1259" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1259" s="7"/>
     </row>
-    <row r="1260" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1260" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1260" s="7"/>
     </row>
-    <row r="1261" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1261" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1261" s="7"/>
     </row>
-    <row r="1262" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1262" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1262" s="7"/>
     </row>
-    <row r="1263" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1263" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1263" s="7"/>
     </row>
-    <row r="1264" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1264" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1264" s="7"/>
     </row>
-    <row r="1265" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1265" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1265" s="7"/>
     </row>
-    <row r="1266" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1266" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1266" s="7"/>
     </row>
-    <row r="1267" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1267" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1267" s="7"/>
     </row>
-    <row r="1268" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1268" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1268" s="7"/>
     </row>
-    <row r="1269" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1269" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1269" s="7"/>
     </row>
-    <row r="1270" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1270" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1270" s="7"/>
     </row>
-    <row r="1271" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1271" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1271" s="7"/>
     </row>
-    <row r="1272" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1272" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1272" s="7"/>
     </row>
-    <row r="1273" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1273" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1273" s="7"/>
     </row>
-    <row r="1274" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1274" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1274" s="7"/>
     </row>
-    <row r="1275" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1275" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1275" s="7"/>
     </row>
-    <row r="1276" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1276" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1276" s="7"/>
     </row>
-    <row r="1277" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1277" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1277" s="7"/>
     </row>
-    <row r="1278" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1278" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1278" s="7"/>
     </row>
-    <row r="1279" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1279" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1279" s="7"/>
     </row>
-    <row r="1280" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1280" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1280" s="7"/>
     </row>
-    <row r="1281" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1281" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1281" s="7"/>
     </row>
-    <row r="1282" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1282" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1282" s="7"/>
     </row>
-    <row r="1283" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1283" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1283" s="7"/>
     </row>
-    <row r="1284" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1284" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1284" s="7"/>
     </row>
-    <row r="1285" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1285" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1285" s="7"/>
     </row>
-    <row r="1286" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1286" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1286" s="7"/>
     </row>
-    <row r="1287" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1287" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1287" s="7"/>
     </row>
-    <row r="1288" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1288" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1288" s="7"/>
     </row>
-    <row r="1289" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1289" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1289" s="7"/>
     </row>
-    <row r="1290" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1290" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1290" s="7"/>
     </row>
-    <row r="1291" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1291" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1291" s="7"/>
     </row>
-    <row r="1292" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1292" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1292" s="7"/>
     </row>
-    <row r="1293" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1293" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1293" s="7"/>
     </row>
-    <row r="1294" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1294" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1294" s="7"/>
     </row>
-    <row r="1295" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1295" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1295" s="7"/>
     </row>
-    <row r="1296" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1296" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1296" s="7"/>
     </row>
-    <row r="1297" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1297" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1297" s="7"/>
     </row>
-    <row r="1298" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1298" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1298" s="7"/>
     </row>
-    <row r="1299" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1299" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1299" s="7"/>
     </row>
-    <row r="1300" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1300" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1300" s="7"/>
     </row>
-    <row r="1301" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1301" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1301" s="7"/>
     </row>
-    <row r="1302" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1302" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1302" s="7"/>
     </row>
-    <row r="1303" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1303" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1303" s="7"/>
     </row>
-    <row r="1304" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1304" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1304" s="7"/>
     </row>
-    <row r="1305" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1305" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1305" s="7"/>
     </row>
-    <row r="1306" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1306" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1306" s="7"/>
     </row>
-    <row r="1307" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1307" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1307" s="7"/>
     </row>
-    <row r="1308" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1308" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1308" s="7"/>
     </row>
-    <row r="1309" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1309" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1309" s="7"/>
     </row>
-    <row r="1310" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1310" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1310" s="7"/>
     </row>
-    <row r="1311" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1311" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1311" s="7"/>
     </row>
-    <row r="1312" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1312" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1312" s="7"/>
     </row>
-    <row r="1313" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1313" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1313" s="7"/>
     </row>
-    <row r="1314" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1314" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1314" s="7"/>
     </row>
-    <row r="1315" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1315" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1315" s="7"/>
     </row>
-    <row r="1316" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1316" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1316" s="7"/>
     </row>
-    <row r="1317" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1317" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1317" s="7"/>
     </row>
-    <row r="1318" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1318" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1318" s="7"/>
     </row>
-    <row r="1319" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1319" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1319" s="7"/>
     </row>
-    <row r="1320" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1320" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1320" s="7"/>
     </row>
-    <row r="1321" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1321" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1321" s="7"/>
     </row>
-    <row r="1322" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1322" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1322" s="7"/>
     </row>
-    <row r="1323" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1323" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1323" s="7"/>
     </row>
-    <row r="1324" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1324" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1324" s="7"/>
     </row>
-    <row r="1325" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1325" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1325" s="7"/>
     </row>
-    <row r="1326" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1326" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1326" s="7"/>
     </row>
-    <row r="1327" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1327" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1327" s="7"/>
     </row>
-    <row r="1328" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1328" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1328" s="7"/>
     </row>
-    <row r="1329" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1329" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1329" s="7"/>
     </row>
-    <row r="1330" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1330" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1330" s="7"/>
     </row>
-    <row r="1331" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1331" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1331" s="7"/>
     </row>
-    <row r="1332" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1332" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1332" s="7"/>
     </row>
-    <row r="1333" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1333" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1333" s="7"/>
     </row>
-    <row r="1334" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1334" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1334" s="7"/>
     </row>
-    <row r="1335" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1335" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1335" s="7"/>
     </row>
-    <row r="1336" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1336" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1336" s="7"/>
     </row>
-    <row r="1337" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1337" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1337" s="7"/>
     </row>
-    <row r="1338" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1338" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1338" s="7"/>
     </row>
-    <row r="1339" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1339" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1339" s="7"/>
     </row>
-    <row r="1340" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1340" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1340" s="7"/>
     </row>
-    <row r="1341" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1341" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1341" s="7"/>
     </row>
-    <row r="1342" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1342" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1342" s="7"/>
     </row>
-    <row r="1343" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1343" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1343" s="7"/>
     </row>
-    <row r="1344" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1344" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1344" s="7"/>
     </row>
-    <row r="1345" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1345" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1345" s="7"/>
     </row>
-    <row r="1346" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1346" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1346" s="7"/>
     </row>
-    <row r="1347" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1347" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1347" s="7"/>
     </row>
-    <row r="1348" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1348" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1348" s="7"/>
     </row>
-    <row r="1349" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1349" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1349" s="7"/>
     </row>
-    <row r="1350" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1350" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1350" s="7"/>
     </row>
-    <row r="1351" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1351" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1351" s="7"/>
     </row>
-    <row r="1352" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1352" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1352" s="7"/>
     </row>
-    <row r="1353" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1353" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1353" s="7"/>
     </row>
-    <row r="1354" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1354" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1354" s="7"/>
     </row>
-    <row r="1355" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1355" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1355" s="7"/>
     </row>
-    <row r="1356" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1356" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1356" s="7"/>
     </row>
-    <row r="1357" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1357" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1357" s="7"/>
     </row>
-    <row r="1358" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1358" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1358" s="7"/>
     </row>
-    <row r="1359" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1359" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1359" s="7"/>
     </row>
-    <row r="1360" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1360" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1360" s="7"/>
     </row>
-    <row r="1361" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1361" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1361" s="7"/>
     </row>
-    <row r="1362" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1362" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1362" s="7"/>
     </row>
-    <row r="1363" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1363" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1363" s="7"/>
     </row>
-    <row r="1364" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1364" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1364" s="7"/>
     </row>
-    <row r="1365" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1365" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1365" s="7"/>
     </row>
-    <row r="1366" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1366" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1366" s="7"/>
     </row>
-    <row r="1367" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1367" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1367" s="7"/>
     </row>
-    <row r="1368" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1368" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1368" s="7"/>
     </row>
-    <row r="1369" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1369" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1369" s="7"/>
     </row>
-    <row r="1370" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1370" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1370" s="7"/>
     </row>
-    <row r="1371" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1371" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1371" s="7"/>
     </row>
-    <row r="1372" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1372" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1372" s="7"/>
     </row>
-    <row r="1373" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1373" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1373" s="7"/>
     </row>
-    <row r="1374" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1374" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1374" s="7"/>
     </row>
-    <row r="1375" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1375" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1375" s="7"/>
     </row>
-    <row r="1376" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1376" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1376" s="7"/>
     </row>
-    <row r="1377" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1377" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1377" s="7"/>
     </row>
-    <row r="1378" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1378" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1378" s="7"/>
     </row>
-    <row r="1379" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1379" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1379" s="7"/>
     </row>
-    <row r="1380" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1380" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1380" s="7"/>
     </row>
-    <row r="1381" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1381" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1381" s="7"/>
     </row>
-    <row r="1382" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1382" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1382" s="7"/>
     </row>
-    <row r="1383" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1383" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1383" s="7"/>
     </row>
-    <row r="1384" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1384" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1384" s="7"/>
     </row>
-    <row r="1385" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1385" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1385" s="7"/>
     </row>
-    <row r="1386" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1386" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1386" s="7"/>
     </row>
-    <row r="1387" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1387" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1387" s="7"/>
     </row>
-    <row r="1388" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1388" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1388" s="7"/>
     </row>
-    <row r="1389" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1389" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1389" s="7"/>
     </row>
-    <row r="1390" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1390" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1390" s="7"/>
     </row>
-    <row r="1391" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1391" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1391" s="7"/>
     </row>
-    <row r="1392" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1392" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1392" s="7"/>
     </row>
-    <row r="1393" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1393" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1393" s="7"/>
     </row>
-    <row r="1394" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1394" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1394" s="7"/>
     </row>
-    <row r="1395" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1395" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1395" s="7"/>
     </row>
-    <row r="1396" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1396" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1396" s="7"/>
     </row>
-    <row r="1397" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1397" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1397" s="7"/>
     </row>
-    <row r="1398" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1398" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1398" s="7"/>
     </row>
-    <row r="1399" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1399" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1399" s="7"/>
     </row>
-    <row r="1400" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1400" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1400" s="7"/>
     </row>
-    <row r="1401" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1401" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1401" s="7"/>
     </row>
-    <row r="1402" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1402" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1402" s="7"/>
     </row>
-    <row r="1403" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1403" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1403" s="7"/>
     </row>
-    <row r="1404" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1404" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1404" s="7"/>
     </row>
-    <row r="1405" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1405" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1405" s="7"/>
     </row>
-    <row r="1406" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1406" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1406" s="7"/>
     </row>
-    <row r="1407" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1407" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1407" s="7"/>
     </row>
-    <row r="1408" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1408" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1408" s="7"/>
     </row>
-    <row r="1409" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1409" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1409" s="7"/>
     </row>
-    <row r="1410" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1410" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1410" s="7"/>
     </row>
-    <row r="1411" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1411" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1411" s="7"/>
     </row>
-    <row r="1412" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1412" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1412" s="7"/>
     </row>
-    <row r="1413" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1413" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1413" s="7"/>
     </row>
-    <row r="1414" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1414" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1414" s="7"/>
     </row>
-    <row r="1415" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1415" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1415" s="7"/>
     </row>
-    <row r="1416" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1416" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1416" s="7"/>
     </row>
-    <row r="1417" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1417" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1417" s="7"/>
     </row>
-    <row r="1418" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1418" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1418" s="7"/>
     </row>
-    <row r="1419" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1419" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1419" s="7"/>
     </row>
-    <row r="1420" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1420" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1420" s="7"/>
     </row>
-    <row r="1421" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1421" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1421" s="7"/>
     </row>
-    <row r="1422" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1422" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1422" s="7"/>
     </row>
-    <row r="1423" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1423" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1423" s="7"/>
     </row>
-    <row r="1424" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1424" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1424" s="7"/>
     </row>
-    <row r="1425" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1425" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1425" s="7"/>
     </row>
-    <row r="1426" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1426" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1426" s="7"/>
     </row>
-    <row r="1427" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1427" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1427" s="7"/>
     </row>
-    <row r="1428" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1428" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1428" s="7"/>
     </row>
-    <row r="1429" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1429" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1429" s="7"/>
     </row>
-    <row r="1430" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1430" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1430" s="7"/>
     </row>
-    <row r="1431" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1431" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1431" s="7"/>
     </row>
-    <row r="1432" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1432" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1432" s="7"/>
     </row>
-    <row r="1433" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1433" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1433" s="7"/>
     </row>
-    <row r="1441" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1441" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E1441" s="12"/>
     </row>
-    <row r="1442" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1442" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E1442" s="12"/>
     </row>
-    <row r="1443" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1443" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E1443" s="12"/>
     </row>
-    <row r="1444" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1444" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E1444" s="12"/>
     </row>
-    <row r="1445" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1445" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E1445" s="12"/>
     </row>
-    <row r="1446" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1446" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E1446" s="12"/>
     </row>
-    <row r="1447" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1447" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E1447" s="12"/>
     </row>
-    <row r="1448" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1448" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E1448" s="12"/>
     </row>
-    <row r="1449" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1449" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E1449" s="12"/>
     </row>
-    <row r="1450" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1450" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E1450" s="12"/>
     </row>
-    <row r="1451" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1451" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E1451" s="12"/>
     </row>
-    <row r="1452" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1452" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E1452" s="12"/>
     </row>
-    <row r="1453" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1453" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E1453" s="12"/>
     </row>
-    <row r="1454" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1454" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E1454" s="12"/>
     </row>
-    <row r="1455" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1455" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E1455" s="12"/>
     </row>
-    <row r="1456" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1456" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E1456" s="12"/>
     </row>
-    <row r="1457" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1457" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E1457" s="12"/>
     </row>
-    <row r="1458" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1458" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E1458" s="12"/>
     </row>
-    <row r="1459" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1459" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E1459" s="12"/>
     </row>
-    <row r="1460" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1460" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E1460" s="12"/>
     </row>
-    <row r="1461" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1461" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E1461" s="12"/>
     </row>
-    <row r="1462" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1462" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E1462" s="12"/>
     </row>
-    <row r="1463" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1463" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E1463" s="12"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F37" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="ADMCON4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7.54296875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="12" customWidth="1"/>
     <col min="8" max="8" width="68" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="7"/>
+    <col min="9" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -8618,7 +8535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>11016</v>
       </c>
@@ -8644,7 +8561,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>10566</v>
       </c>
@@ -8670,7 +8587,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>10571</v>
       </c>
@@ -8696,7 +8613,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>11021</v>
       </c>
@@ -8722,7 +8639,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>10576</v>
       </c>
@@ -8748,7 +8665,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>10581</v>
       </c>
@@ -8774,7 +8691,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>11011</v>
       </c>
@@ -8800,7 +8717,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>11001</v>
       </c>
@@ -8826,7 +8743,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>11006</v>
       </c>
@@ -8852,7 +8769,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>11026</v>
       </c>
@@ -8878,7 +8795,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>10586</v>
       </c>
@@ -8904,7 +8821,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>10591</v>
       </c>
@@ -8930,7 +8847,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>11031</v>
       </c>
@@ -8956,7 +8873,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>10596</v>
       </c>
@@ -8982,7 +8899,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>10601</v>
       </c>
@@ -9008,7 +8925,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>10611</v>
       </c>
@@ -9034,7 +8951,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>10616</v>
       </c>
@@ -9060,7 +8977,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>10621</v>
       </c>
@@ -9086,7 +9003,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>10626</v>
       </c>
@@ -9112,7 +9029,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>10631</v>
       </c>
@@ -9138,7 +9055,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>10636</v>
       </c>
@@ -9164,7 +9081,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>10641</v>
       </c>
@@ -9190,7 +9107,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>10646</v>
       </c>
@@ -9216,7 +9133,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>10651</v>
       </c>
@@ -9242,7 +9159,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>10656</v>
       </c>
@@ -9268,7 +9185,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>10661</v>
       </c>
@@ -9294,7 +9211,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>10666</v>
       </c>
@@ -9320,7 +9237,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>10671</v>
       </c>
@@ -9346,7 +9263,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>10676</v>
       </c>
@@ -9372,58 +9289,59 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E31" s="15"/>
     </row>
-    <row r="35" spans="4:7" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D35" s="16"/>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="4:7" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D36" s="16"/>
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="4:7" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D37" s="16"/>
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37" s="16"/>
     </row>
-    <row r="38" spans="4:7" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D38" s="16"/>
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38" s="16"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" customWidth="1"/>
-    <col min="2" max="3" width="48.26953125" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="3" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>160</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>161</v>
       </c>
@@ -9431,7 +9349,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>163</v>
       </c>
@@ -9439,7 +9357,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>165</v>
       </c>
@@ -9447,7 +9365,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>167</v>
       </c>
@@ -9455,7 +9373,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>169</v>
       </c>
@@ -9463,7 +9381,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>170</v>
       </c>
@@ -9471,7 +9389,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>172</v>
       </c>
@@ -9479,7 +9397,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>174</v>
       </c>
@@ -9487,7 +9405,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>176</v>
       </c>
@@ -9495,7 +9413,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>178</v>
       </c>
@@ -9503,7 +9421,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
@@ -9511,7 +9429,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>181</v>
       </c>
@@ -9519,7 +9437,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>183</v>
       </c>
@@ -9527,7 +9445,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>185</v>
       </c>
